--- a/Data/generated_caffeines.xlsx
+++ b/Data/generated_caffeines.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t>GATS3c</t>
   </si>
@@ -28,1153 +28,1042 @@
     <t>smiles</t>
   </si>
   <si>
-    <t>CN1N=C1Sc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN1CCCCCCNCNc2c(n(C)c(=O)n(C)c2=O)N1</t>
-  </si>
-  <si>
-    <t>CNCCC1CCCN(C)Nc2c(c(=O)n(C)c(=O)n2C)N1</t>
-  </si>
-  <si>
-    <t>CN1CCC(CCNC=N)=Nc2c1n(C)c(=O)n(C)c2=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1CC2=C(N1)N(C)C(=O)N(C)C2</t>
-  </si>
-  <si>
-    <t>CNCNCC1CCN2C=C1N(C)C(=O)N(C)C2</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1CC2=CN1C(=O)N(C)C(=O)N2C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1CC(CN(C)C(=O)NC)=CN1</t>
-  </si>
-  <si>
-    <t>COn1c(NCCN)nc2c1CN(C)C2=O</t>
-  </si>
-  <si>
-    <t>CC1C2=C(N(C)CCCCCN(C=N)NO2)N(C)C(=O)N1C</t>
-  </si>
-  <si>
-    <t>CN1C(=O)NOc2ncn(C)c2C1=O</t>
-  </si>
-  <si>
-    <t>CN1CC2=CC3N(O)C23C(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>CC1N(C)Cc2c(nc(NCCCN=O)n2C)N1C</t>
-  </si>
-  <si>
-    <t>CC1N(C)C=C(N=C(C=O)NCC=O)CN1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=NC(=CC(=O)N(C)C)N(C)C=O)NCCCCCN</t>
-  </si>
-  <si>
-    <t>CN1Cc2c(nc(NCCCN=O)n2C)N(C)C1</t>
-  </si>
-  <si>
-    <t>CON(C)CCNc1nc2c(n1C)N(C)CN(C)C2=O</t>
-  </si>
-  <si>
-    <t>CON1CC2=CN(C)C1(C)C(=O)C(NCC=O)=N2</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CNC(=O)c2c1nc(NCCCCN)n2C</t>
-  </si>
-  <si>
-    <t>CN(C)CCNCN(C)c1c(N)c(=O)n(C)c(=O)n1C</t>
-  </si>
-  <si>
-    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)NCCCCCN</t>
-  </si>
-  <si>
-    <t>CCNCCCNc1nc2c(n1C)C(C)N(N=O)CN2C</t>
-  </si>
-  <si>
-    <t>CN1C(=O)NCc2nc(NCCCCCN)n(C=O)c21</t>
-  </si>
-  <si>
-    <t>CCSC1=C2N(C)C(=O)NC(=C(N)N2C)C1N(C)C</t>
-  </si>
-  <si>
-    <t>CCCSc1nc(N(C)CNC)c(CN(C)OO)n1C</t>
-  </si>
-  <si>
-    <t>Cn1c(NCCCNCCCN=O)nc2c1CNCC2=O</t>
-  </si>
-  <si>
-    <t>COC(=O)C(S)=CC(=CN(C)CCCN(C)C1=Nc2c(c(=O)n(C)c(=O)n2C)CN1)[N+](=O)[O-]</t>
-  </si>
-  <si>
-    <t>CNc1c(N(C)C(=O)N(C)C=O)nc(NCCCNCCCN)n1C</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2nc(NCCCN3C(=O)CCC3=O)n(C)c2n(C)c1=O</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2c(nc(NCCCNCCCCNCCN)n2C)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1Cc2nc(NCCCN3C(=O)CCC3=O)[nH]c2C(=O)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>C=CCCC(S)c1c(NC)nc(NCCCN2C(=O)c3ccccc3C2=O)n1C</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CNC(NCCCNC(=O)CSC(=S)N1CCCC1)=N2</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CNc2nc(NCCCCN3C(=O)C=CC3=O)n(C)c21</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(N=C(NCCCN=C3NC(=O)CS3)NC2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C1=NC=C(N(C)C)CN1CCN(C)C</t>
+    <t>Cn1c(NCCCN=C2NC(=O)CS2)nc2c1n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CN1CN=C(NCCCN=C2NC(=O)CS2)N(C)CN(C)C1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(SC(=S)N2CCCC2)nc2c1n(C)c(=O)n2C=O</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(C)c2=O)C1NCC=CCCCN=N</t>
+  </si>
+  <si>
+    <t>CCN(C=O)C(=O)C=CN=C(NCCCN=C1NC(=O)CS1)N(C)C</t>
+  </si>
+  <si>
+    <t>CN1c2c(n(C)c(=O)n2C)C1Sc1nc2ccccc2[nH]1</t>
+  </si>
+  <si>
+    <t>Cn1c2c(c(=O)n(C)c1=O)CNC(NCCN1C(=O)c3ccccc3C1=O)=N2</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2[nH]c(NCCCNC(=O)CSC(=S)N3CCCC3)nc2n(C)c1=O</t>
+  </si>
+  <si>
+    <t>Cn1c2c(c(=O)n(C)c1=O)CNC2NCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN2C(=O)C=CC2=O)nc2c1n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CN1C(=O)c2c1nc(NCCCN=C1NC(=O)CS1)n2C</t>
+  </si>
+  <si>
+    <t>CN1CN2C=C(C2NCCCNCCCCNCCCN=N)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)N1C=C(C=O)NC(NCCCCCCN)=NC1</t>
+  </si>
+  <si>
+    <t>O=CCN1Cn2cc(nc2SC(=S)N2CCCC2)NC1=O</t>
+  </si>
+  <si>
+    <t>CN(C(=N)NCCCCCCN)c1cn(C)c(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CC1=C(N=C[NH])CNc2nc3c(c(=O)n(C)c(=O)n3C)n21</t>
+  </si>
+  <si>
+    <t>CCSC(=NC)N(C)C1=C2C1N(C)CN2OC=O</t>
+  </si>
+  <si>
+    <t>CON1C2N(C)CC(N(C)CSCC(C)C)=CN21</t>
+  </si>
+  <si>
+    <t>CCSC(=NC)N(C)C1=C2C1NC(=O)N2OCC=O</t>
+  </si>
+  <si>
+    <t>CCCn1c(CN(C)CC)nc2c(=O)n(C)c(=O)n(C)c21</t>
+  </si>
+  <si>
+    <t>CCSC1=NCC2=C(C(C)N(C)C(=O)N2C=O)N1O</t>
+  </si>
+  <si>
+    <t>CCSC(=NC)N(C)C1=C2C1NC(=O)N2OC=O</t>
+  </si>
+  <si>
+    <t>CCON1C(SCC)=NCc2[nH]c(=O)n(C)c(=O)c21</t>
+  </si>
+  <si>
+    <t>CNC=NCCNc1nc2c([nH]1)c(=O)n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CCSC1=NCC2=C(C(=O)N(C)CN2)N1OCC=O</t>
+  </si>
+  <si>
+    <t>CCOON1CN(C)C2C1=C2N(C)C(=NC)SCC</t>
+  </si>
+  <si>
+    <t>CCSC1=NCc2[nH]c(=O)n(C)c(=O)c2N1CC=O</t>
+  </si>
+  <si>
+    <t>CCSC1=NCC2=C(CN(O)C(=O)N2C=O)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=C(N)NN(C=O)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CON1C(=O)N(C)Cc2c1nc(NCCCCCN)n2C</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNC(=N)NC1C(=O)N(C)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CC1C(N(C)C(=N)NCCCCN)=CN(O)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CC1N(C)C(=O)c2c(nc(NCCCCN)n2C)N1OO</t>
+  </si>
+  <si>
+    <t>CN(C(=N)NCCCCCN)C1=C2N(C=O)CN2C1=O</t>
+  </si>
+  <si>
+    <t>CC(Sc1nc2[nH]c(=O)n(C)c(=O)c2n1C)N1CCCCS1</t>
+  </si>
+  <si>
+    <t>CN1CNc2nc(NCCCCN)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(NCCCCN)n2C)n(C=O)c1=O</t>
+  </si>
+  <si>
+    <t>CON1c2nc(SCC(C)C)n(C)c2C(=O)NC1C</t>
+  </si>
+  <si>
+    <t>CC1c2c(nc(NCCCCCN)n2C)NC(=O)N1C</t>
+  </si>
+  <si>
+    <t>CC(C)CSc1nc2c(n1C)CN(C)C(=O)N2OC=O</t>
+  </si>
+  <si>
+    <t>CN1C(=O)CC2(NC=C(Nc3ccccc3N)S2)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1C(=O)NC2=C(Nc3ccccc3N)SC(CC1C=O)N2</t>
   </si>
   <si>
     <t>Cn1c2c(c(=O)n(C)c1=O)CNC(NCCCN=C1NC(=O)CS1)=N2</t>
   </si>
   <si>
-    <t>CNC(NCCCCNC(C)=O)c1nc2c(=O)n(C)c(=O)n(C)c2n1C</t>
-  </si>
-  <si>
-    <t>CN1Cc2c(nc(NCCCN=C3NC(=O)CS3)n2C)N(C)C1=O</t>
+    <t>CCN1C(=O)CC2NC(=C(Nc3ccccc3N)S2)NC1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)CCC(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(CCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)Sc1nc2ccccc2n1Cc1cn(CCCCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=Nc2c(n(C)c(=O)n(C)c2=O)CN1</t>
+  </si>
+  <si>
+    <t>CC(C)CSC1=NCNC(=O)N(CC=O)CN1C</t>
+  </si>
+  <si>
+    <t>CC(C)CSC1=NCN(C)C(=O)N(C)C(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CCn1c(=O)c2nc(N(C)C)[nH]c2n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN(C=O)CC1(NCC=CCCCN=N)CN1C</t>
+  </si>
+  <si>
+    <t>CCN1CN(C)C(NCC=CCCCN=N)CNC1=O</t>
+  </si>
+  <si>
+    <t>CN(C)c1nc2c(=O)n(C)c(=O)n(C)c2n1C</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)c1nc2c(n1C)CC(=O)N(C)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C=O)C(=O)C=CN=CC1SC=CC(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CN(C)C1C2N=CC=CSC(CC(=S)N1C)N2C</t>
+  </si>
+  <si>
+    <t>CCN1C(=O)CN(C)C(NCC=CCCCN=N)CNC1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=CC=O)N=C(SC=O)Sc1nc2ccccc2n1Cc1cn(Cc2ccccc2CN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CCNC(=O)C(=CC=O)N=C(C=O)Sc1nc2ccccc2n1Cc1cn(Cc2ccccc2CN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>Cn1c(N=C(SC=O)Sc2nc3ccccc3n2Cc2cn(Cc3ccccc3CN=[N+]=[N-])nn2)cc(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCN2C(=O)CCC2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCn1c(NCCNCCCNCCN)nc(C=O)c1C=O</t>
+  </si>
+  <si>
+    <t>CN1CC(=O)N(C)C(=O)CNC2=C1SCC=CC=C2</t>
+  </si>
+  <si>
+    <t>CCSC1=NCCN(C)C(=S=O)CN1C</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCCN)nc2c1n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CCN1C(=O)CN=CN(C)CNCN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CC(C)CSC1=NCN(C)C(=O)N(C)CN1C</t>
+  </si>
+  <si>
+    <t>CSC1=C2CN1C=C(CN)N2</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN)nc2[nH]c(=O)n(CC=O)c21</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(SCN3CCCCS3)n2C)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN(CSc1nc2c(c(=O)n(C)c(=O)n2C)n1C)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CC(C)CSCN(C)C1=C=NC(=N)NC1=O</t>
+  </si>
+  <si>
+    <t>CN1CC=CC=CCCn2c(=O)n(C)c(=O)c3nc1n(C)c32</t>
+  </si>
+  <si>
+    <t>CCSC1=NC2NC3=C(C(=O)N(C)C2(C)N3OC)N1C</t>
+  </si>
+  <si>
+    <t>CN1CN(C)c2nc(NCCNCCN)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CC1N(OO)C=C(N(C)C(=N)NCCCCN)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CCCCSN(C)C(=O)Sc1nc2c(n1C)CN(C)C(=O)N2C</t>
+  </si>
+  <si>
+    <t>CN(C=O)CN(C)C(=O)c1cnc(NCCCCCCN)[nH]1</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc2[nH]c(=O)n(C)c(=O)c2n1C</t>
+  </si>
+  <si>
+    <t>CN(C(=N)SC(=S)N1CCCC1)C1=CN(C=O)CNC1=O</t>
+  </si>
+  <si>
+    <t>CC1N(O)C(=O)c2c(nc(NCCCCCCN)n2C)N1C</t>
+  </si>
+  <si>
+    <t>CN(C(=N)SC(=S)N1CCCC1)C1=C2N(C=O)CN2C1=O</t>
+  </si>
+  <si>
+    <t>CCN1CN(O)C(=O)c2c1nc(NCCCCCCN)n2C</t>
+  </si>
+  <si>
+    <t>CON1CN(C)C(=O)c2c1nc(NCCCCNC(C)=O)n2C</t>
+  </si>
+  <si>
+    <t>CON1CN(C)C(=O)C2=C1C(NCCNCCCNCCN=N)N2C</t>
+  </si>
+  <si>
+    <t>CC(C)CSC(=NCN)N(C)C1=C2N(CC=O)CN2C1=O</t>
+  </si>
+  <si>
+    <t>CN1c2c(n(C)c(=O)n(C)c2=O)C1NCCN=C1NC(=O)CS1</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCCNc1nc2c(n1C)C(=O)NCN2C=O</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCNCCCNCCN)nc2c1C(=O)NCN2C=O</t>
+  </si>
+  <si>
+    <t>CN(C(=N)NCCCCNCCCN)C1=CN(C=O)CNC1=O</t>
+  </si>
+  <si>
+    <t>CCCSc1nc2cn1CN(C)CC(=O)N2</t>
+  </si>
+  <si>
+    <t>CSc1nc2c(n1C)N(C)CC(=S)N2C</t>
+  </si>
+  <si>
+    <t>CSc1nc2c(n1C)N(C)CN2C=S</t>
+  </si>
+  <si>
+    <t>CSC1=NCN(C=S)CN(C)CN1C</t>
+  </si>
+  <si>
+    <t>CCCSC1=NCN(C)CN(C)CN1C</t>
+  </si>
+  <si>
+    <t>CNC(=S)N(S)c1ncn(C)c1N(C)C</t>
+  </si>
+  <si>
+    <t>CNC(=S)N(S)CN=CN(C)CN(C)C</t>
+  </si>
+  <si>
+    <t>CSC1=NCN(C=[SH]C)CN(C)CN1C</t>
+  </si>
+  <si>
+    <t>CCCSc1nc(NC)cn1CN(C)C</t>
+  </si>
+  <si>
+    <t>CN1C=NCN(S)C(=S)N(C)CN(C)C1</t>
+  </si>
+  <si>
+    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)SC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CNC1c2c(c(=O)n(C)c(=O)n2C)N1CCCNCCCCNCCCN=N</t>
+  </si>
+  <si>
+    <t>CN(C=O)C(=O)N(C)c1cn(C)c(NCCCN2C(=O)C=CC2=O)n1</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN2C(=O)C=CC2=O)nc2[nH]c(=O)n(CC=O)c21</t>
+  </si>
+  <si>
+    <t>CCCn1c(=O)[nH]c2nc(NCCCN3C(=O)C=CC3=O)n(C)c21</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN=C2NC(=O)CS2)nc2[nH]c(=O)n(CC=O)c21</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)[nH]c2nc(NCCCN3C(=O)C4=C(CC=CC=C4)C3=O)n(C)c2c1=O</t>
+  </si>
+  <si>
+    <t>C=CC=CCC1=CC(=O)N(CCNc2nc3[nH]c(=O)n(C)c(=O)c3n2C)C1=O</t>
+  </si>
+  <si>
+    <t>COC(=O)C(S)=CC(=CN(C)CCN(C)C(N)=NC=CC=O)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>C=CC=CCC(=CC=O)CSc1nc2c(c(=O)n(C)c(=O)n2C)n1CN</t>
+  </si>
+  <si>
+    <t>C=CC=COC1=CC(=O)N(CCNc2nc3c(n2C)C(=O)N(C)CN3C)C1=O</t>
+  </si>
+  <si>
+    <t>CCC1=CC(=O)C(=O)N(C)C(=O)N[SH]2CC(=O)NC2=NCCNCNC=N1</t>
+  </si>
+  <si>
+    <t>C=CC=CCC(=CC=O)CSc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
+  </si>
+  <si>
+    <t>CN1CN(C)c2nc(NCCNC(=Nc3c(C=O)c3=O)OO)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CN[SH]1CC(=O)NC1=NCCNCN1C=NC(OC)=CC(=O)C(=O)N(C)C1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C=C(N=C(C=O)Sc2nc3ccccc3n2Cc2cn(Cc3ccc(CN=[N+]=[N-])cc3)nn2)CCC1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)CCC(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(Cc2ccc(CN=[N+]=[N-])cc2)nn1</t>
+  </si>
+  <si>
+    <t>CCCON(C)CCNC(=NCNC(=O)NC)NCCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CCCN1Cc2[nH]c(nc2NC(=O)NC)NCCC(N2C(=O)c3ccccc3C2=O)C1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C=O)CN=C(NCCCCN1C(=O)c2ccccc2C1=O)NCCN(C)O</t>
+  </si>
+  <si>
+    <t>CCCON(C)CC1NOC(NCCN2Cc3ccccc3C2=O)=NCN1C(=O)NC</t>
+  </si>
+  <si>
+    <t>CCCON(C)Cc1[nH]c(NCCNC(=O)CSC(=S)N2CCCC2)nc1NC(=O)NC</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(O)CN=C(NCCCCN1C(=O)c2ccccc2C1=O)NC1=CCN(C)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CCCN1CCNC(=NCNC(=O)NC)NCCCN(C(=O)CSC(=S)N2CCCC2)C1=O</t>
+  </si>
+  <si>
+    <t>CCn1c(=O)n(C)c2c1nc(NCCCN1C(=O)C=CC1=O)n2C</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN2C(=O)C=CC2=O)nc2c1n(C)c(=O)n2C=O</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN=C2NC(=O)CS2)nc2c1n(C=O)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CON1c2nc(NCCNCCN)n(C)c2C(=O)NC1C</t>
+  </si>
+  <si>
+    <t>CN1CNc2nc(NCCCCCN)n(C)c2C1</t>
+  </si>
+  <si>
+    <t>CC1NC(=O)N(C)C2=C(C(CCNCCNN)=N2)N1C=O</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCNCCN)nc2c1C(=O)N(O)CN2</t>
+  </si>
+  <si>
+    <t>CN1C(=O)NCN(C=O)CNCC2=CNC=CNC=NC21</t>
+  </si>
+  <si>
+    <t>CN1CN2CN=C(NCCCCN)N(C)C2C1=O</t>
+  </si>
+  <si>
+    <t>CON1CNC(=O)N(C)C2=C1CC(CCN=O)=N2</t>
+  </si>
+  <si>
+    <t>CC1Nc2nc(NCCNCCN)n(C)c2C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CCON1c2nc(SCC(C)C)n(C)c2C(=O)NC1C</t>
+  </si>
+  <si>
+    <t>CN(C=O)CNC(=O)c1cnc(NCCNCCN)n1C</t>
+  </si>
+  <si>
+    <t>Cn1c(C(=O)N2CN(C=O)C2)cnc1NCCCCCCN</t>
+  </si>
+  <si>
+    <t>CN1CN(C)c2nc(NCCn3c(=O)c4ccccoc=4c3=O)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CN1CN(C)c2nc(NCCNC(=O)C(=CC=O)OCNC=O)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(SCC(C=O)=CC=O)n2CN)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(SCC(C=O)=CC=O)n2N)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN(CNC=NC=CC=O)c1c(N)n(C)c(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)[nH]c2nc(NCCN3C(=O)C4=C(CC=CC=C4)C3=O)n(C)c2c1=O</t>
+  </si>
+  <si>
+    <t>CN1CCc2[nH]c(NCCCN3C(=O)c4ccccc4C3=O)nc2C(=O)C1=O</t>
+  </si>
+  <si>
+    <t>CN1CCc2[nH]c(NCCCCN3C(=O)c4ccccc4C3=O)nc2C(=O)C1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(NCCNC(=O)c3cc(=O)c3=O)n2C)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCCN2C(=O)c3ccccc3C2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C(=O)C=C1N=C(CCC=O)Sc1nc2ccccc2n1Cc1cn(CCCCCCCCCCCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CCCC(=NC1=CC(=O)C(=O)N(C)C1=O)Sc1nc2ccccc2n1Cc1cn(CCCCCCCCCCCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C(C=O)=C1N=C(CCC=O)Sc1nc2ccccc2n1Cc1cn(CCCCCCCCCCCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CN1C=NSC2=C1N(C)C(=O)N(C=CO)C2</t>
+  </si>
+  <si>
+    <t>CC(C)CSC1=NCN(C)C(=O)NC(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C2=C1C(SC1=Nc3ccccc3S1=N)N2C</t>
+  </si>
+  <si>
+    <t>CN(C)C1(C2C=NC(=O)NC(=O)C2=O)N=CC=CS1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)c2nc(NCCC3(N(C)C)N=CC=CS3)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc2c(c(=O)[nH]c(=O)n2CC=O)n1C</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc(CN(C)C(=O)N(C)C=O)c(C=O)[nH]1</t>
+  </si>
+  <si>
+    <t>CNCCCCCCNc1nc(C=O)c(C(=O)N(C)C=O)n1C</t>
+  </si>
+  <si>
+    <t>CN(C=O)C(=O)N(C)c1nc(NCCCCNCCCN)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc2c([nH]1)C(=O)N(C)C(=O)N(C=O)C2</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCCN2C(=O)C=CC2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CN1CC2=CN(N=C(NCCCCNCCCN)N2C=O)C1=O</t>
+  </si>
+  <si>
+    <t>CC1N(O)C=C(N(C)C(=N)SC(=S)N2CCCC2)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CCn1c(NCCCNC(C)=O)nc2[nH]c(=O)n(C)c(=O)c21</t>
+  </si>
+  <si>
+    <t>CNC1=C(N(C)CN(C)OC=O)NC(NCCN=C2NCCS2)N1C</t>
+  </si>
+  <si>
+    <t>CCCn1c(NCCCNC(C)=O)nc2[nH]c(=O)[nH]c(=O)c21</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)c1nc2c(n1OC=O)N(C)CNCC2=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCCNCCCN)=Nn2cc1c(=O)n(C)c2=O</t>
+  </si>
+  <si>
+    <t>CC1C2=CN(N=C(NCCCCNCCCN)N2C=O)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNCN(C)C1=C2N=C1NC(=O)N2</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc2c(n1C)CN(C)C(=O)N2</t>
+  </si>
+  <si>
+    <t>CNC1(C)c2nc(NCCCCNCCCN)n(C=O)c2C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CN1C=NCN(C)C(=S)N(C)C(=S)C1</t>
+  </si>
+  <si>
+    <t>CSN1CN=CN(C)CN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CCCSc1nc(NCC)cn1CN(C)C</t>
+  </si>
+  <si>
+    <t>CN1C=NCN(C=S)C(=O)N(C)C1</t>
+  </si>
+  <si>
+    <t>CCSN1CN=CN(C)CN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1C=Nc2c(n(C)c(=O)n(C)c2=O)N=C1</t>
+  </si>
+  <si>
+    <t>CN1CN2C=C(CN)NC3=C2SCC3N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CCSC1=NCC(=O)N(C)C(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CN(C)C1=C(NCC(=O)NC=O)C=CC=CCS1</t>
+  </si>
+  <si>
+    <t>CC(C)CSC(=NCN(C)C(=O)N(C)C=O)N(C)C</t>
+  </si>
+  <si>
+    <t>C[SH]=c1n(C)c(=O)c2nc(N(C)C)[nH]c2n1C</t>
+  </si>
+  <si>
+    <t>CN1CCNC2=C(SCC=CC=C2)N(C)CC1</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)CN=C(SCC(C)C)N(C)C</t>
+  </si>
+  <si>
+    <t>CSC1=C2NC(CN)=CN1C1C2N(C)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCNc1nc(C=O)c(CN(C)C(=O)NC)n1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCNc1nc(C=O)c(CNC(=O)N(C)C=O)n1C</t>
+  </si>
+  <si>
+    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C=O)NCCCNC(C)=O</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNC(N)=NC1=CC(=O)N(C)C(=O)N(C=O)C1</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc2c(c(=O)n(C)c(=O)n2C=O)n1C</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCCN2C(=O)CCC2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCCNCCCCNCCCN=N)c1cc(=O)n(C)c(=O)n1C</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=O)C=CN=C(SC(=S)N1CCCC1)N(C)C</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(C)c2=O)C1NCCCNCCCCNCCCN=N</t>
+  </si>
+  <si>
+    <t>CCn1c2c(n(C)c1=O)N(C)C2NCCCNCCCCNCCCN=N</t>
+  </si>
+  <si>
+    <t>CCN1C(=O)N(C)CN2C=C1C2NCCCNCCCCNCCCN=N</t>
+  </si>
+  <si>
+    <t>CCn1c(=O)cc(N=C(SC(=S)N2CCCC2)N(C)C)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CCN1C(=O)c2c1nc(NCCCN=C1NC(=O)CS1)n2C</t>
+  </si>
+  <si>
+    <t>CC(C)CSC1=Nc2c(n(C)c(=O)[nH]c2=O)N(C)CN1C</t>
+  </si>
+  <si>
+    <t>Cn1c(SC(=S)N2CCCC2)nc2c1n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CCN1CN=C(NCCCN=C2NC(=O)CS2)N(C)CC1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1cn(C)c(SC(=S)N2CCCC2)n1</t>
+  </si>
+  <si>
+    <t>CN1CN=C(NCc2c[nH]cn2)N(C)CC(=O)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(C=O)c2=O)C1NCC=CCCCN=N</t>
+  </si>
+  <si>
+    <t>CCNC(=O)N(CN=C(NCc1c[nH]cn1)N(C)C)OC</t>
+  </si>
+  <si>
+    <t>CCN1CN(C)C(NCc2c[nH]cn2)=NCN(OC)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(=NCN(C)C(=O)N(C)C=O)NCc1c[nH]cn1</t>
+  </si>
+  <si>
+    <t>CN(C)C(=NC=CC(=O)N(C)C=O)NCCCN=C1NC(=O)CS1</t>
+  </si>
+  <si>
+    <t>Cc1nc(NCCNCCCNCCN)n2c1C(=O)C(=O)N(C)C(=O)NC2</t>
+  </si>
+  <si>
+    <t>CN(C)C(=Nc1cc(=O)n(C)c(=O)n1C)SC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CN(C=O)C(=O)N(C)c1cn(C)c(SC(=S)N2CCCC2)n1</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(C)c2=O)N=C1NCc1c[nH]cn1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)c2c1nc(NCCCN1C(=O)C=CC1=O)n2C</t>
+  </si>
+  <si>
+    <t>CCCON1CCNC(NCCCCN2C(=O)c3ccccc3C2=O)=NCN(C(=O)NC)C1</t>
+  </si>
+  <si>
+    <t>CN(CCNC(=O)CSC(=S)N1CCCC1)CNc1nc2c(c(=O)n(C)c(=O)n2CCCCN=[N+]=[N-])n1C</t>
+  </si>
+  <si>
+    <t>CNC(=O)N1CN=C(NCCCCN2C(=O)c3ccccc3C2=O)NCCN(C=O)C1=O</t>
+  </si>
+  <si>
+    <t>CN(CCNC(=O)CSC(=S)N1CCCC1)CNc1nc2c(c(=O)n(C)c(=O)n2CCCN=[N+]=[N-])n1C</t>
+  </si>
+  <si>
+    <t>CCCN(O)Cc1[nH]c(NCCCN2C(=O)c3ccccc3C2=O)nc1NC(=O)NC</t>
+  </si>
+  <si>
+    <t>CN1CN(CCNC(=O)CSC(=S)N2CCCC2)C=Nc2c1c(=O)n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>C=CC=CCn1c(=O)n(C)c(=O)c2c1nc(NCN(C)CCNC(=O)CSC(=S)N1CCCC1)n2C</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCN=C(CNCC=O)N(C)CCCNC=C(C=C(S)C(=O)OC)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)NCCCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CN1Cc2nc(NCCCN3C(=O)C=CC3=O)[nH]c2C(=O)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C=O)c1nc(Sc2nc3ccccc3[nH]2)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CN(C=O)c1nc(NCCCCN2C(=O)C=CC2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCN2C(=O)C=CC2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(Sc2nc3ccccc3[nH]2)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CCN(O)C(=O)N(C)CC(NCC=CCCCN=N)N(C)C</t>
+  </si>
+  <si>
+    <t>CN(C=O)C(=O)N(C)CC(NCC=CCCCN=N)N(C)C</t>
+  </si>
+  <si>
+    <t>COOC1=NCN2CC2(NCC=CCCCN=N)CN1C</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN=C2NC(=O)CS2)nc2c1C(=O)N2</t>
+  </si>
+  <si>
+    <t>CCNC(=O)N(C)c1cn(C)c(SC(=S)N2CCCC2)n1</t>
+  </si>
+  <si>
+    <t>CCn1c(NCCN)nc2c1c(=O)n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CC1=CSC2=Nc3c(c(=O)n(C)c(=O)n3C)CN2C1</t>
+  </si>
+  <si>
+    <t>CN1CN(C)C(NCC=CCCCN=N)CN(C=O)C1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(NCCCCNCCCN)n2C)n(C=O)c1=O</t>
+  </si>
+  <si>
+    <t>CNC(=NC(=CC=O)N(C)C=O)NCCCCN1C(=O)CCC1=O</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(C=O)c2=O)N=C1NCc1c[nH]cn1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)N(CNCCN=C2NC(=O)CS2)Cc2ncn(C)c21</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(O)c2=O)N=C1NCc1c[nH]cn1</t>
+  </si>
+  <si>
+    <t>CN(C(=O)CN1CCCC1)C1=C(N)C(C=O)N(C)C(=O)N1</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=O)C1=CN=C(SC(=S)N2CCCC2)N(C)C1</t>
+  </si>
+  <si>
+    <t>CN(C)C1(NCCCNCCCCNCCCN=N)c2c1n(C)c(=O)n(C)c2=O</t>
+  </si>
+  <si>
+    <t>CCn1c(CN(C)C)nc2c(=O)n(C)c(=O)n(C)c21</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)c1nc2c([nH]1)C(N(C)C)C(=O)N(C)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C)c1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
+  </si>
+  <si>
+    <t>CCn1cc(C(=O)N(C)C(=O)NC)nc1CN(C)C</t>
   </si>
   <si>
     <t>CN(C)CCNc1nc2c(=O)n(C)c(=O)n(C)c2n1C</t>
   </si>
   <si>
-    <t>CNC(=O)N(C)C(=O)c1c(NC)nc(NCCCCCN)n1C</t>
-  </si>
-  <si>
-    <t>CC(=O)NCCCNC(=N)NC1=CN(O)C(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>CC1c2[nH]c(NCCCNCCCNC=O)nc2NC(=O)N1C</t>
-  </si>
-  <si>
-    <t>CC1Nc2nc(NCCCNCCCNC=O)[nH]c2C(=O)N1C</t>
-  </si>
-  <si>
-    <t>CCNCCCCCN(C)C(=N)N(C)C1=C2N(C=O)CN2C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)c2c(nc(NCCCCCN)n2C)NCNC1C=O</t>
-  </si>
-  <si>
-    <t>CCN1CN2C(=O)C(N(C)C(=N)SC(=S)N3CCCC3)=C12</t>
-  </si>
-  <si>
-    <t>CN1CN(C=O)c2nc(NCCN=CSCC=O)[nH]c2C1N</t>
-  </si>
-  <si>
-    <t>CN1C=C(NC(=N)NCCCNCCCNC=O)CN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CC1c2[nH]c(N(C)CCN(C)C)nc2NC(=O)N1C</t>
-  </si>
-  <si>
-    <t>CN(C(=N)SC(=S)N1CCCC1)C1=C2N(C=O)CN2C1=O</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)NC1=CCC2=C3C2CN3N=NN1CCCN=[N+]=[N-]</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)CC1=C2C1CN2Sc1nc2ccccc2[nH]1</t>
-  </si>
-  <si>
-    <t>CCC1CN(CCNc2nc3c(c(=O)n(C)c(=O)n3C)n2C)C1</t>
-  </si>
-  <si>
-    <t>CC1C=CCN2C=NC3=C(C(=O)N(C)C(C=O)N3)C12</t>
-  </si>
-  <si>
-    <t>CN(C)C1C=NC1</t>
-  </si>
-  <si>
-    <t>CNC(=O)CNC1=CCC2=C3C2CN3N=NN1CCCCCN=[N+]=[N-]</t>
-  </si>
-  <si>
-    <t>CNC(=O)NCCCCCCCCCCCCN1C=CCC2=C3C2CN3N=N1</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCCCCCN1N=NN2CC3C(=C32)CC=C1Nc1ccccc1C=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)ON1CC23C(=C12)CN(C)C(=O)N3C</t>
-  </si>
-  <si>
-    <t>C[SH]=C(SON1C2=C3CN(C)C(=O)N(C)C1C32)N1CCCC1</t>
-  </si>
-  <si>
-    <t>CCN(CCCNC)N1CC2C(CN(C)C(=O)N(C)C=O)=C21</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN3c4nnn(CCCCCN=[N+]=[N-])c4CN(C)CC(=O)C123</t>
-  </si>
-  <si>
-    <t>CCN(CCCCCCCCNC)ON1CC2C(CN(C)C=O)=C21</t>
-  </si>
-  <si>
-    <t>CCC1CN(CN(C)c2nc3c(=O)n(C)c(=O)n(C)c3n2C)C1</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)CC1=C2C1CN2OSC(=S)N1CCCC1C</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)CC1=C2C1CN2SC=Nc1ccccc1[NH]</t>
-  </si>
-  <si>
-    <t>CNCCN(C)c1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
-  </si>
-  <si>
-    <t>CNC1CN(C)C(NCCCCCN)C=NCN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1Cc2nc(NCCCN3C(=O)C=CC3=O)[nH]c2C(=O)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2c(nc(NCCN=C(OS)SCC=O)n2C)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CNCCCNCCCNON1CC2C(CN(C)C(=O)NC)=C21</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)C(=O)n1cc(CN(C)CN2CC(N(C)C)C2)nn1</t>
-  </si>
-  <si>
-    <t>CN1c2c(c(=O)n(C)c(=O)n2C)N=CCC2CN1C2</t>
-  </si>
-  <si>
-    <t>CN1CC=Nc2c(n(C)c(=O)n(C)c2=O)N=C(CCN)CCCCC1</t>
-  </si>
-  <si>
-    <t>CCC1CN(CNc2nc3c(c(=O)n(C)c(=O)n3C)n2C)C1</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN3c4nnn(CCCCCN=[N+]=[N-])c4CCC(=O)N(C)C123</t>
-  </si>
-  <si>
-    <t>CNCCNCCCCCNCN1CC2C(CN(C)C(=O)NC)=C21</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN3c4nnn(CCCCCN=[N+]=[N-])c4CNC(=O)N(C)C123</t>
-  </si>
-  <si>
-    <t>CCN1C(=O)N(O)C(C)C2=C1N(C)N1CC(CCN2)C1</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN3c4nnn(CCCCCN=[N+]=[N-])c4NC(C(C)C)C123</t>
-  </si>
-  <si>
-    <t>CCC1=C2C1CN2C=O</t>
-  </si>
-  <si>
-    <t>CCC1CN2CN(C)C=Nc3c(n(C)c(=O)n(C)c3=O)N=C12</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN(c3cn(CCCN=[N+]=[N-])nn3)C12</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)N(C)c1cn(C)c(NCCCCCCN)n1</t>
-  </si>
-  <si>
-    <t>CNC(=O)C(=O)C(NN1C#CC=CC1)N(C)C=O</t>
-  </si>
-  <si>
-    <t>CN([SH]=CN1C#CC=CC1)C(N)C=O</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)[nH]c2c(c1=O)CCN1CC=CC(=O)C1N2</t>
-  </si>
-  <si>
-    <t>Cn1c(N)c(CCN2CC=CC(=O)C2)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CCN1CC=CC(=O)C1=N2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)N2CCNCCCNCCCN=N</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)[nH]c1=O)CCN1CC=CC(=O)C21</t>
-  </si>
-  <si>
-    <t>CN([SH]=CN1C#CC=CC1)C(N)C(=O)NC=O</t>
-  </si>
-  <si>
-    <t>Cn1c(CN2C#CC=CC2)c(ON)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C(N)=C(NN2C#CC=CC2)N(C)C1C=O</t>
-  </si>
-  <si>
-    <t>CCCN(CNN1C#CC=CC1)C(=O)N(C)C=O</t>
-  </si>
-  <si>
-    <t>CNCCC1CCCN(C)N2C=C(C(=O)N(C)C(C)N2)N1C</t>
-  </si>
-  <si>
-    <t>CN1CCCN(CC2=CCN(C)C2=O)CC1=O</t>
-  </si>
-  <si>
-    <t>CC1C2=C(NN(C)CCCCCCN(C)NO2)N(C)C(=O)N1C</t>
-  </si>
-  <si>
-    <t>CNC1CCCCCN(C)Nc2c(c(=O)n(C)c(=O)n2C)N1C</t>
-  </si>
-  <si>
-    <t>CNCNCC1=Nc2c(n(C)c(=O)n(C)c2=O)N(C)CC1</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)c2cn(C)c(n2)SC2CN2C1=O</t>
-  </si>
-  <si>
-    <t>C=CC=CC=CN=CSC1C=N1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1CN(C)C2=CN1N(C)C(=O)N2C</t>
-  </si>
-  <si>
-    <t>CCn1cnc2c1C(=O)N(C)C(=O)NO2</t>
-  </si>
-  <si>
-    <t>CC(=O)N(C)CN(C)CN=CN(C)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCNC=N)c1c(N)c(=O)n(C)c(=O)n1C</t>
-  </si>
-  <si>
-    <t>Cc1c(N(C)CCCCCNC=N)n(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N2N=NC1SCNCCC2=O</t>
-  </si>
-  <si>
-    <t>CNCNCC1CCN2C=C1N(C)C(=O)C2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)N=C(CCCN)CNC=N2</t>
-  </si>
-  <si>
-    <t>CNCNCC1C2=CN3CC1=C(C3)N2C</t>
-  </si>
-  <si>
-    <t>CNCNCC1C2=CN(C)CC1=C(N)N2C</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CCN2CC(=O)C1C2</t>
-  </si>
-  <si>
-    <t>CNCNC1=CN(C)C2=CN(C)CCC12</t>
-  </si>
-  <si>
-    <t>O=CN1N=NCSCNCCC1=O</t>
-  </si>
-  <si>
-    <t>CN1CN(C)C2=CN(CCCCCNC(=N)C1=O)C2</t>
-  </si>
-  <si>
-    <t>CN1CNC(CCCCNC=N)N2C=C(C2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1c2c(n(C)c(=O)n(C)c2=O)N=CNCCCC1CN</t>
-  </si>
-  <si>
-    <t>N=CNCCCCCN1c2c1c(=O)c2=O</t>
-  </si>
-  <si>
-    <t>CN1CN2N=NC(SCNCCC2=O)C1=O</t>
-  </si>
-  <si>
-    <t>CN1c2ccccc2N2C=CC1NCSCN=N2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)N=C(CCN)CCNC=N2</t>
-  </si>
-  <si>
-    <t>CN1CN=CN(Cc2ccccc2)CCC(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CN(Cc1ccccc1)C=N2</t>
-  </si>
-  <si>
-    <t>CNCCCCCC1=Nc2c(c(=O)n(C)c(=O)n2C)NN1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCC1=Nc2c(n(C)c(=O)n(C)c2=O)NN1C</t>
-  </si>
-  <si>
-    <t>CN(C=NC1=C(N)C(=O)N(C)CN1C)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN1C=NC2=C(N=C1c1ccccc1)C(=O)N(C)CN2C</t>
-  </si>
-  <si>
-    <t>CN(C=NC1=CC(=O)N(C)CN1C)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN(CN)CCN(C)c1c[nH]c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CCN1C(CN(C)C=Cc2c(C=O)[nH][nH]c2=O)N1C</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(N=C3C(=O)C=CCN3CC2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)NN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)CCc1c(N)n(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CNCC1C=CCN(C=O)C1</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CCN1CC(=O)C=CC1=N2</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(N=CN(CC=CC=O)N2C)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(C3C(=O)C=CCN3CC2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CCN1CC=CC(=O)C21</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)C=CSCC(=O)N1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN(C=O)CC=CSCC(=O)N1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CC2=C(N=C3C=CC(=O)CN3C2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(N=CN(CC=CC=O)CC2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(N(C)C1=O)N(C)C1C(=O)C=CCN1CC2</t>
-  </si>
-  <si>
-    <t>COC(=O)C(S)=CC(=CN(C)CN1CC(N(C)C)C1)[N+](=O)[O-]</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)CN=CNCCCCNCCCCN1CC(C(N)=O)C1</t>
-  </si>
-  <si>
-    <t>COC(=O)C(S)=CC1=CN(C)CN2CC(N(C)C)C2N(C)[N+]1=O</t>
-  </si>
-  <si>
-    <t>CNc1nc2n(C)c1C(=O)N(C)C(=O)N1CC2C1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCCCN)Cc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
-  </si>
-  <si>
-    <t>CNCCCC1CN(CNc2nc3c(c(=O)n(C)c(=O)n3C)n2C)C1</t>
-  </si>
-  <si>
-    <t>CN1C=CN(C)C(C=C[N+](=O)O)N(C)C(=O)N2CC1C2</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN(c3cn(CCCCCN=[N+]=[N-])nn3)C12</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)C2=CN(C)C3CN(C1=O)C3=N2</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN(C=CN(CCCCCN=[N+]=[N-])N=N)C12</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CCC2=C(C=O)C1=C(CCCCN=[N+]=[N-])CCCn1cc(nn1)Cn1c(nc3ccccc31)SC=N2</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCCCCCCCCn1cc(Cn2c(SC=NC(=CC=O)CCC(=O)NC=O)nc3ccccc32)nn1</t>
-  </si>
-  <si>
-    <t>CN1CC(C=O)=C(N=CSc2nc3ccccc3n2Cc2cn(CCCCCCCCN=[N+]=[N-])nn2)CCC1=O</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2c(nc(Sc3nc4ccccc4n3CC=CC=O)n2CN=NN)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CCCC(=NC(=CC=O)C(=O)N(C)C=O)Sc1nc2ccccc2n1Cc1cn(CCCCCCCCN=[N+]=[N-])nn1</t>
-  </si>
-  <si>
-    <t>CCC(N(C)CCN(C)C(=N)N)N(C)N(C)N=O</t>
-  </si>
-  <si>
-    <t>NCCCCCNc1nc2c([nH]1)C(=O)NCN2CC=O</t>
-  </si>
-  <si>
-    <t>CCC1NC(=O)c2[nH]c(NCCCCCN)nc2N1O</t>
-  </si>
-  <si>
-    <t>CC(N(C)CCN(C)C(=N)S)N(CC=O)N(C)O</t>
-  </si>
-  <si>
-    <t>CCC(N(C)CCN(C)C(=N)S)N(O)N(C)C=O</t>
-  </si>
-  <si>
-    <t>CCNc1ncc(N(C)C(CC)N(N)N(C)OC)n1C</t>
-  </si>
-  <si>
-    <t>CCN1CN(O)c2nc(NCCCCCN)[nH]c2C1=O</t>
-  </si>
-  <si>
-    <t>CCCNc1nnc2c(n1)c(=O)n(C)c(=O)n2C</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCN=[N+]=[N-])CCN1C=CN=NC1</t>
-  </si>
-  <si>
-    <t>CNCCCCC1=Nc2c(c(=O)n(C)c(=O)n2C)NN(C)C1</t>
-  </si>
-  <si>
-    <t>CN1CC(N(C)c2cn(C)c(=O)n(C)c2=O)=N1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)Nc1c(OC)n(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)c2cnc(n2C)CN(C)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)c2cn(C)c(n2)SC2CN2N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)Cn2ccnc2CN(C)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>Cn1c(N=CS2=NN3CC32)cc(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN(C=Nc1cc(=O)n(C)c(=O)n1C)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN1Cc2c(nc(NCCN)n2OCC=O)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C=CNC(N[SH]=C2C=CCNC2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)N2CC(N=NC=O)C12</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)N=CN(CCCCCCCCN)C=N2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)[nH]c1=O)CCN1CC=CC(=O)C1=N2</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2c(nc(N3C#CC=CC3)n2C)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1CC(N)=C(NN2C#CC=CC2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CNCCCCC1=Nc2c(n(C)c(=O)n(C)c2=O)NN(C)C1</t>
-  </si>
-  <si>
-    <t>CCCn1cnc2c1C(=O)N(C)C(=O)NO2</t>
-  </si>
-  <si>
-    <t>CN1CN=CN(Cc2ccccc2)CC(=O)C(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>CON1C2C=C3CN(C)CN(C)C(=O)C321</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)NC1=CN2CC=CCC2N1C</t>
-  </si>
-  <si>
-    <t>CN1CN(C)C2=C(N=CN(Cc3ccccc3)C=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1CCC=Nc2c(c(=O)n(C)c(=O)n2C)NC2=C(CNC2)C1</t>
-  </si>
-  <si>
-    <t>CN(CC=Nc1c(N)c(=O)n(C)c(=O)n1C)CC1=CCNC1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)Nc1cn(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN(C=Nc1c(N)c(=O)n(C)c(=O)n1C)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN1c2c(n(C)c(=O)n(C)c2=O)N=CN1CC=CC=O</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CCN(CC=CC=O)C=N2</t>
-  </si>
-  <si>
-    <t>CN1CC=CC(=O)Nc2c(n(C)c(=O)n(C)c2=O)N1C</t>
-  </si>
-  <si>
-    <t>CNCc1ccccc1CCNCCC=CC1=C2CN12</t>
-  </si>
-  <si>
-    <t>CN1CC=CC(=O)Nc2c(c(=O)n(C)c(=O)n2C)N1C</t>
-  </si>
-  <si>
-    <t>CN1CCN(C)c2c(n(C)c(=O)n(C)c2=O)Nc2ccccc2C1</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)NN(CC=CC=O)C=N2</t>
-  </si>
-  <si>
-    <t>CCN(C)CC(NN1C#CC=CC1)N(C)C=O</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)N(C)c1c(N)n(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN(CCN=NN(Cc1ccccc1CN=[N+]=[N-])N=N)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>C1=C2CN3CC2NCc2ccccc2CCNCC13</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N2N=NC1CNCC2=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C2=C(C(=O)C1N)N(CCCCCNC=N)C2</t>
-  </si>
-  <si>
-    <t>Cc1ccccc1SCC(=S)N1C=CCNCSCN=N1</t>
-  </si>
-  <si>
-    <t>CNCNCC1CC2C(=S)N(C)C1=CN2C</t>
-  </si>
-  <si>
-    <t>CN1C2=CN(CCCCCNC=NNc3ccccc31)C2</t>
-  </si>
-  <si>
-    <t>CN1CCNC=NC2=C1C(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>CC1N(C)C(=S)C2CNCC(=O)N1N=N2</t>
-  </si>
-  <si>
-    <t>CNCN(C)C1=CN(CCCCCNC=N)C1</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(C1=O)N(CCCCCNC=N)C2</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(NCCCCNC(=O)CSC(=S)N2CCCC2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(NCCCCN2C(=O)c3ccccc3C2=O)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>Cn1c(NCCCCNC(=O)CSC(=S)N2CCCC2)nc(NCNC=O)c1C=O</t>
-  </si>
-  <si>
-    <t>O=CCN1C(=O)N2CCC(=O)C3C4C=C(CN3C2=S)C1=C4</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)N(CC=O)C(=S)N1CC2=CC(C=C2)C1</t>
-  </si>
-  <si>
-    <t>O=CN1C(=O)C2=CC3(CN(C3)C1=S)N=N2</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C2=C3N(C)C1C(=O)C1C(CC=N2)CN1N3C</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C=O)C(=S)N2CC3(C=C1N=N3)C2</t>
-  </si>
-  <si>
-    <t>COC(=O)C(S)=CC(=CNCCCN(C)C1C=Nc2c(c(=O)n(C)c(=O)n2C)N1C)[N+](=O)[O-]</t>
-  </si>
-  <si>
-    <t>COC(=O)C(S)=CC(=CN(C)CCN(C)C1=Nc2c(c(=O)n(C)c(=O)n2C)CN1)[N+](=O)[O-]</t>
-  </si>
-  <si>
-    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)N(C)CCCCCCN(C)C=C(C=C(S)C(=O)OC)[N+](=O)[O-]</t>
-  </si>
-  <si>
-    <t>CNC1=NC(=CN(N)CCCCCCCCN=[N+]=[N-])Cn2c(nc3ccccc32)S1</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)Cc1nc(NCCCNCCCCNCCCN)[nH]c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(NCCN2C(=O)C=CC2=O)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(Sc2nc3ccccc3s2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)N(C)c2c1nc(NCCCNCCCNCCCN)n2C</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2nc(NCCCNCCCNCCCN)n(C)c2n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)N(C)c2c1nc(NCCCN1C(=O)CCC1=O)n2C</t>
-  </si>
-  <si>
-    <t>CN1CCc2c(n(C)c(=O)n(C)c2=O)C1C=CC=O</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)CCc1cn(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN(Cc1ccccc1)CC1N=NNC1CCCCN=[N+]=[N-]</t>
-  </si>
-  <si>
-    <t>CN1CN=CN(CCN2CCCC2=O)CCC(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>CC1CNC(=O)C2=C(CN2C)N=NN(CCCN=[N+]=[N-])CN1C</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CCN1CC(=O)C=C(C1)N2</t>
-  </si>
-  <si>
-    <t>CN1C(=O)NC(=O)CC2=C1CN(CC=CC=O)C2</t>
-  </si>
-  <si>
-    <t>CN1CC(=CC=O)Nc2c(c(=O)n(C)c(=O)n2C)N1C</t>
-  </si>
-  <si>
-    <t>CN(Cc1ccccc1)Cc1cn(CCCCCCCCN=[N+]=[N-])nn1</t>
-  </si>
-  <si>
-    <t>CCCCCn1cc(CNCCC=CCN(C)N=[N+]=[N-])nn1</t>
-  </si>
-  <si>
-    <t>CNCCCNCCCNc1nc2c(n1C)C(=O)N(O)CN2</t>
-  </si>
-  <si>
-    <t>CCNCCCNc1ncc(C(=O)N(N)C(C)N(C)C)n1C</t>
-  </si>
-  <si>
-    <t>CNCCNc1ncc(C(=O)NC(C)N(C)C=O)n1C</t>
-  </si>
-  <si>
-    <t>CCNCCn1c(C(=O)N(C)CN(C)NCC)cnc1NC</t>
-  </si>
-  <si>
-    <t>CCNCCNc1ncc(C(=O)N(C)C(N)N(C)C=O)n1C</t>
-  </si>
-  <si>
-    <t>CCN(C)C(SC)N(C=CNC)CC(=O)N1CN(C)C1</t>
-  </si>
-  <si>
-    <t>CCNCCCCCCNc1nc2c(n1O)C(=O)NCN2</t>
-  </si>
-  <si>
-    <t>CCNCCCCCCNc1nc2c(n1O)C(=O)N(C)CN2</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CN=CNCCCCCN2C=C(C2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N=CNCCCCCN2C=C(C2)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C)CN(C)C1=CN(CCCCCNC=N)C1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1Cc2cn1n(C)c2=S</t>
-  </si>
-  <si>
-    <t>CN1CN(C)CN(C2=CN(CCCCCNC=N)C2)C1</t>
-  </si>
-  <si>
-    <t>CN(CN=[N+]=[N-])CN(C)C1=CN(CCCCCNC=N)C1</t>
-  </si>
-  <si>
-    <t>CNC1=Nc2c(c(=O)n(C)c(=O)n2C)N(C)CCCCN1</t>
-  </si>
-  <si>
-    <t>CN1CC2=CN(CCCCCNC(=N)N(C)C1=O)C2</t>
-  </si>
-  <si>
-    <t>CN1N=CNCCCCCN2C=C(C2)N(C)C1=S</t>
-  </si>
-  <si>
-    <t>CN1N=CNCCCCCN2C=C(C2)N(C)c2ccccc21</t>
-  </si>
-  <si>
-    <t>CN1CC2=CN(CCCCCNC=NN(C)C1=S)C2</t>
-  </si>
-  <si>
-    <t>CN(C)C(=O)N(C)C(=O)c1cnc(NCc2c[nH]cn2)n1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCNc1nc2c([nH]1)CN(C)C(C)N2C=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCNC(=N)N(C)C1=CN(O)C(=O)N(C)C1C</t>
-  </si>
-  <si>
-    <t>CCCCCCCCCCNc1nc2c([nH]1)CN(C)C(C)N2C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCNC(=N)N(C)C1=CN(O)C(C)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCNC(=N)NC1=CN(OC)C(C)N(C)C1</t>
-  </si>
-  <si>
-    <t>CCNCCCCCCCNC(=N)NC1=CN(O)C(C)N(C)C1</t>
-  </si>
-  <si>
-    <t>CC1c2c(nc(SCC(C)(C)C)n2O)NC(=O)N1C</t>
-  </si>
-  <si>
-    <t>CC1c2[nH]c(N(C)CCN(C)C)nc2N(O)C(=O)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCNC(=N)NC1=CN(C=O)C(C)N(C)C1</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2[nH]c(SCC(C)(C)C)nc2n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN(C)CCN(C)c1nc2c(n1C=O)C(=O)N(C)CN2</t>
-  </si>
-  <si>
-    <t>CN1C=Nc2c(c(=O)n(C)c(=O)n2C)C1c1ccccc1</t>
-  </si>
-  <si>
-    <t>CN1CN(C)C2=C(CN(Cc3ccccc3)C=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C=Nc2c(c(=O)n(C)c(=O)n2C)N=C1c1ccccc1</t>
-  </si>
-  <si>
-    <t>CC1CC(=O)C2=C(NCCN2C)N1Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>O=CN1CC=CC(=O)C1</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)[nH]c1=O)CN(Cc1ccccc1)C=N2</t>
-  </si>
-  <si>
-    <t>CN(C(=O)NCC=O)C1NN2C#CC=C1C2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)C=CC1CC=CCN21</t>
-  </si>
-  <si>
-    <t>CNNC(=CC1=CN(C)CCN(C)C1=O)CCOO</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)[SH]=CN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(NCCN2C(=O)CCC2=O)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)Nc1nc(Sc2nc3ccccc3n2Cc2cn(CCCCCCCCCCCCN=[N+]=[N-])nn2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CN(C)C(=O)Nc1nc(Sc2nc3ccccc3n2Cc2cn(CCCCCCCCCCCCN=[N+]=[N-])nn2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)CCc1nc(Sc2nc3ccccc3n2Cc2cn(Cc3ccccc3CN=[N+]=[N-])nn2)n(CN)c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)CCc1nc(Sc2nc3ccccc3n2Cc2cn(CCCCCCCCCCCCN=[N+]=[N-])nn2)n(CN)c1C=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCNc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCNc1nc2c([nH]1)c(=O)n(C)c(=O)n2C</t>
-  </si>
-  <si>
-    <t>Cn1cc(CCN2C#CC=CC2)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>C=C(C=CC(=S)NCCCCCCCNC)NN=NN1CC=CC(=O)C1</t>
-  </si>
-  <si>
-    <t>CC1N(C)CC2=C(C3C(=O)C=CCN3CC2)N1O</t>
-  </si>
-  <si>
-    <t>CCN(C)C1C2=CC#CN(C=[SH]N(C)C(=O)N1C)C2</t>
-  </si>
-  <si>
-    <t>CCCCNON(C)CCN1C=CN(C)CN(C)C(=O)C1</t>
-  </si>
-  <si>
-    <t>Cn1c(NN2C#CC=CC2)cc(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CC1NCCCCN2CC=CC(=O)C2C(C=O)N1C</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C=C(N=CNCCCCNC(=O)CSC(=S)N2CCCC2)CCC1=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)C(=CC=O)N=C(NC)NCCCCNC(=O)CSC(=S)N1CCCC1</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)CC(=CC=O)N=CNCCCCNC(=O)CSC(=S)N1CCCC1</t>
-  </si>
-  <si>
-    <t>CNC(=Nc1[nH]c(=O)n(C)c(=O)c1C=O)NCCCCNC(=O)CSC(=S)N1CCCC1</t>
-  </si>
-  <si>
-    <t>CN(C(=O)NC=O)c1nc(NCCCCNC(=O)CSC(=S)N2CCCC2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=NC(=CC=O)N(C)C(=O)NC=O)NCCCCNC(=O)CSC(=S)N1CCCC1</t>
-  </si>
-  <si>
-    <t>CCCSC(NC)N(C)C1=CN(OC)CN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CCCCCCNc1nc2c([nH]1)C(=O)NC(NC)N2C=O</t>
-  </si>
-  <si>
-    <t>CCCCCCNc1nc2c([nH]1)C(=O)N(N)C(C)N2C=O</t>
-  </si>
-  <si>
-    <t>CON1CN(C)C(=O)C2=C1CN=C(NCCN)N2C</t>
-  </si>
-  <si>
-    <t>CCCCCCNc1nc2c([nH]1)C(=O)N(NC)CN2C=O</t>
-  </si>
-  <si>
-    <t>CCCCCCNC(=N)N(N)C1=CN(C=O)CN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1CC2=CN(C1)N=C(NCCCCCNC=O)N2</t>
-  </si>
-  <si>
-    <t>CC=CC=CSC1NC2=CN(SC=O)CN(C2=O)N1C</t>
-  </si>
-  <si>
-    <t>CC=CC=CSC1N(N)C2=CN(CC)CN(C2=O)N1C</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(NCCCNC(=O)CSC(=S)N2CCCC2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CN(C)C(=O)N(C)CCCNCNN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN(C(=O)NC=O)N1CC1Sc1nccn1C</t>
-  </si>
-  <si>
-    <t>CCCCCCNc1nc2c(n1N)C(=O)N(C)CN2C=O</t>
-  </si>
-  <si>
-    <t>CC=CC=CSC1NC2=CN(CSC)CN(C2=O)N1C</t>
-  </si>
-  <si>
-    <t>CCNN(C)CCN(C)C=Cc1c(C=O)[nH][nH]c1=O</t>
-  </si>
-  <si>
-    <t>CCNN1CC1SC=Nc1cc(=O)n(C)c(=O)n1C</t>
-  </si>
-  <si>
-    <t>CN1CN(CCCCCCCCN)C=NCC(=O)NC(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)NOc1cn(C)cn1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1CC2=CN1N(C)C(=O)N2C</t>
-  </si>
-  <si>
-    <t>CN1CCCCCN(C=N)Cc2c1n(C)c(=O)n(C)c2=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)C2CCCC(CNN)C1=CCCN2C</t>
-  </si>
-  <si>
-    <t>CN1CC=C(CN2CCN(C)C(=O)N(C)C2)C1=O</t>
-  </si>
-  <si>
-    <t>CC1NN(C=N)CCCCCN2C=C(C2)C(=O)N1C</t>
-  </si>
-  <si>
-    <t>CN1C=Nc2c(n(C)c(=O)[nH]c2=O)N=C1CCCCCCCN</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCN(C=O)ON1CC2C(CN(C)C=O)=C21</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCCCCCN1N=NN2CC3C(=C32)CC=C1CC(=O)NC=O</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCCCCCN1N=NN2CC3C(=C32)CC=C1CC(=O)NCC=O</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCCCN1N=NN2CC3C(=C32)CC=C1Sc1nc2ccccc2[nH]1</t>
-  </si>
-  <si>
-    <t>CN1CN2N=NC(CNCC2=O)C1=S</t>
-  </si>
-  <si>
-    <t>CNCC1N=NN(NN(C)CSC)C1C</t>
-  </si>
-  <si>
-    <t>CNC1=C(N(C)CCCCCNC=N)C(=O)C(=O)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C(=O)C2=C(NC(CCCCNC=N)N2C)C1=O</t>
-  </si>
-  <si>
-    <t>CNC1C(=S)C(=N)NCCCCCN2C=C1C2</t>
-  </si>
-  <si>
-    <t>CN1N=CNCCCCCN2C=C(C2)C1=O</t>
-  </si>
-  <si>
-    <t>CC=CC=CN(C)C1=CN(CCCCCNC=N)C1</t>
-  </si>
-  <si>
-    <t>CCn1cc(CN(C)CN=[N+]=[N-])nn1</t>
-  </si>
-  <si>
-    <t>CN(Cc1ccccc1)Cc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
-  </si>
-  <si>
-    <t>CN1c2c(c(=O)n(C)c(=O)n2C)N=CN1CC=CC=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C2=CN=C(N3CCCC3)NCCC=CCN21</t>
-  </si>
-  <si>
-    <t>CNC=C(C=O)NCCC=CCN1CN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CNCCC=C1CN(C)c2c1n(C)c(=O)n(C)c2=O</t>
-  </si>
-  <si>
-    <t>CC1CC2C(=O)N(C)C(=O)NN2C1</t>
-  </si>
-  <si>
-    <t>CC1CCNCSC2N=NN1OCN2C</t>
-  </si>
-  <si>
-    <t>CNCNCC1CCN2C=C1N(C)CNC2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)NN(CCCCCN)C=N2</t>
-  </si>
-  <si>
-    <t>CCC(N(C)CCN(C)C(=N)S)N(C)N(C)OO</t>
-  </si>
-  <si>
-    <t>CSC(=N)N(C)CCN(C)C(C)N(C)N(C)OO</t>
-  </si>
-  <si>
-    <t>CNC(=N)N(C)CCN(C)C(C)N(C)N(C)N=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(CNCCC=O)N(C)CCNC1=S</t>
-  </si>
-  <si>
-    <t>CN1CCNCN(C)C(=O)CCC1=O</t>
-  </si>
-  <si>
-    <t>CN1CNC(=O)c2c1nc(NCCCNCCCN)n2C</t>
-  </si>
-  <si>
-    <t>CN1CN(C)c2nc(NCCCNCCCN)n(C)c2C1=O</t>
-  </si>
-  <si>
-    <t>CCSC1=C(N(C)CN)N(C)C(=O)N(C)CC1NC</t>
-  </si>
-  <si>
-    <t>CNC1CN(C=O)C(=O)N(C)C(N(C)CN)=C1SC</t>
-  </si>
-  <si>
-    <t>CCSC1=C2N(C)C(=O)N(C)C(=C(N)N2C)C1NC</t>
-  </si>
-  <si>
-    <t>CCNCCCNCCCNC1=NN2C=C(C(C)NC2=O)N1O</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(C1=O)N(Cc1ccccc1)CCN=NN2</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)N(C)c1c(N)n(C)c(=O)[nH]c1=O</t>
-  </si>
-  <si>
-    <t>CCN1CCSCCNC(=O)C2N3C=CC=C1C1=CC2(C3)N=N1</t>
-  </si>
-  <si>
-    <t>C=CC=CC=CCN1OC(C)N(C)C2N3C=CC=C1C1=CC2(C3)N=N1</t>
-  </si>
-  <si>
-    <t>CN1CC2NCC34C1=CN(C)C3CN4C(=O)N2C</t>
-  </si>
-  <si>
-    <t>CN1CC=Nc2c(c(=O)n(C)c(=O)n2C)N=C(CCCCCN)CC1</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(CC(=O)CNC=O)C(=O)N2CC3(C=C1N=N3)C2</t>
-  </si>
-  <si>
-    <t>CN1N=NN2CC=CC(=O)C2C=CCNC(=O)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CCCCCCCCCN(C)Nc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
-  </si>
-  <si>
-    <t>CN1CCN2CC(CCCCN)C2=Nc2c1c(=O)n(C)c(=O)n2C</t>
-  </si>
-  <si>
-    <t>O=CC1N2CCSCCNC13N1C=CC=C2C2=CC3(C1)N=N2</t>
-  </si>
-  <si>
-    <t>CC1NCC=C1CN1Cc2c(n(C)c(=O)[nH]c2=O)N1</t>
-  </si>
-  <si>
-    <t>CN(C=Cc1c(C=O)[nH][nH]c1=O)CCN1CN1C</t>
-  </si>
-  <si>
-    <t>CCC1CN(N(C)c2c(N)c(=O)n(C)c(=O)n2C)C1</t>
-  </si>
-  <si>
-    <t>CCC1CN(N(C)C2=C(N)C(=O)N(C)C(O)N2C)C1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCNON1CC2C(CN(C)C(=O)NC)=C21</t>
-  </si>
-  <si>
-    <t>CCNCCCCCCCNc1nc2c([nH]1)CN(C)C(C)N2O</t>
-  </si>
-  <si>
-    <t>CCN(C=O)C(=O)N(C)C1=CCCN2C#CC=CC12</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)N(C)C1CCN2C#CC=C1C2</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)N(C)C(=O)CCN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN1CC(=O)C(NN2C#CC=CC2)N(C)C(=O)C1O</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(C=O)N(C)C(=O)CCN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)N(CC=O)CNN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CNCCCN(CN)CN(C)C(=O)CCN1C#CC=CC1</t>
+    <t>CN1CCCn2c(nc3c(=O)n(C)c(=O)n(C)c32)C1</t>
+  </si>
+  <si>
+    <t>CN1C2=C3N(C=O)C1C(C=O)(N(C)C2)N3C</t>
+  </si>
+  <si>
+    <t>CCn1c(=O)c2nc(NCCN(C)C)n(C)c2n(C)c1=O</t>
+  </si>
+  <si>
+    <t>COC1(O)N(C)CC2NCC=CC3=NC31N2C</t>
+  </si>
+  <si>
+    <t>CN1CN=CC=CSC1CCN1C(=O)C=CC1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(=NCC(=O)N(C)C=O)Sc1ccccc1</t>
+  </si>
+  <si>
+    <t>CN1CC2(NCC=CCCCN=N)C(C1=O)N2C</t>
+  </si>
+  <si>
+    <t>C=CC=CC1=NC2C(=O)C(S1)N2C</t>
+  </si>
+  <si>
+    <t>CN(C)C(CCCNC(=S)N1CCCC1N)[SH]1C=CC=N1</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)NC1C=CC=CC1</t>
+  </si>
+  <si>
+    <t>CCNC(=O)N(C)C(=O)N=CCC1SC=CC=NCN1C</t>
+  </si>
+  <si>
+    <t>CN(C)C(CCCNC(=S)N1CCCC1)[SH]1C=CC=N1</t>
+  </si>
+  <si>
+    <t>CC(C)CSC(=NCN(C)C(=O)NC=O)N(C)C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCNC1C(C=O)N(C)C(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCN(C)C1=NCC(C)NCNCCN1C</t>
+  </si>
+  <si>
+    <t>CN(CC=O)CCNC1=CCN(C)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CN1CCn2cc(n2C)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(CN)C1=CC2CN1CC(=O)N2C</t>
+  </si>
+  <si>
+    <t>CNc1nc2c(c(=O)n(C)c(=O)n2C)n1Cc1c[nH]cn1</t>
+  </si>
+  <si>
+    <t>CCn1cc(N=C(NC)N(C)CCCNC)c(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C(=O)c2nc(NCCN3C(=O)c4ccccc4C3=O)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1cc(=O)n(C)c(NCCN2C(=O)c3ccccc3C2=O)n1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C(=O)c2nc(NCCCN3C(=O)c4ccccc4C3=O)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)CCC(=CC=O)N=CNCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CN1Cc2nc(NCCNC(=O)CSC(=S)N3CCCC3)[nH]c2C(=O)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCN2C(=O)c3ccccc3C2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=CC=O)N=C(NC)NCCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CNC(=O)C(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(Cc2cccc(CN=[N+]=[N-])c2)nn1</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(Sc2nc3ccccc3n2Cc2cn(Cc3cccc(CN=[N+]=[N-])c3)nn2)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)CCC(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(Cc2cccc(CN=[N+]=[N-])c2)nn1</t>
+  </si>
+  <si>
+    <t>CSc1nc2c(n1C)n(C)c(=S)n2C</t>
+  </si>
+  <si>
+    <t>C[SH]=CN1CN=CN(C)CN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1C=NCN(C)C(=O)N(C)C(=S)C1</t>
+  </si>
+  <si>
+    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)NCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CNC(=O)c1[nH]c(NCCCNCCCCNCCCN)nc1N(C)C(C=O)NC=O</t>
+  </si>
+  <si>
+    <t>CNC=C1N=C(NCCN2C(=O)CCC2=O)N(CN(OC)C(=O)NC)CN(C)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCN(C)c1nc2c(=O)n(C)c(=O)n(C)c2n1C</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCCNc1nc2c(n1C)CN(C)C(=O)N2C</t>
+  </si>
+  <si>
+    <t>CC(C)NCCCNc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
+  </si>
+  <si>
+    <t>CN1C(=O)CN(CNCCCCCN)N(C)C(N(C)C)C1=O</t>
+  </si>
+  <si>
+    <t>CNN(CNCCCCCN)CC(=O)N(C)C(=O)CN(C)C</t>
+  </si>
+  <si>
+    <t>CN1C(=O)CN2C=C3C1CC(=O)C2N3C(=N)NCCN</t>
+  </si>
+  <si>
+    <t>CN1CCCN(C)c2nc3c(=O)n(C)c(=O)n(C)c3n2C=CNC1</t>
+  </si>
+  <si>
+    <t>CN(C)C1=CNC=Cn2c(nc3c(=O)n(C)c(=O)n(C)c32)N(C)C1</t>
+  </si>
+  <si>
+    <t>CN(C)CCCN(C)c1nc2c(=O)n(C)c(=O)n(C)c2n1C</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=O)C=CN(CNCCCCCN)NCC=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)CCC(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(CCCCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CNCn1c(Sc2nc3ccccc3n2Cc2cn(CCCN=[N+]=[N-])nn2)nc2c1C(=O)N(C)C2=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)C(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(CCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(NCCN)n2CC=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN1CN=C(NCCCN=C2NC(=O)CS2)N(C)CC1=O</t>
+  </si>
+  <si>
+    <t>CN1C(=O)NCC(NCC=CCCCN=N)(N(C)C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)N1C=C(N=CC=O)N(C)CC1</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C=CN(C)CC1SC=CC(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CCN1CC(NCC=CCCCN=N)N(C)CN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1CC(O)=C(C2(N(C)C)N=CC=CS2)C=NC1=O</t>
+  </si>
+  <si>
+    <t>CN1CN=CC=CSC1CCN1Cc2ccccc2C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)c1nc2c(n1C)N(O)C(CCCN)N(C)C2=O</t>
+  </si>
+  <si>
+    <t>C=CC(=CC=CC1=CN=C=N1)CN=[N+]=[N-]</t>
+  </si>
+  <si>
+    <t>COC(=O)C(S)=CC(=CN(C)CCCCCCCCN(C)c1nc2c(n1O)C(C)N(C)C(=O)N2C)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>COC(=O)C(S)=CC(=CN(C)CCN(C)c1nc2c(c(=O)n(C)c(=O)n2CCN=[N+]=[N-])n1C)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>CCSC(=NC)N(C)C1=CN(OC)C(=O)N(C)C1</t>
+  </si>
+  <si>
+    <t>CCC(=Nc1cc(=O)n(C)c(=O)n1C)N(C)NC=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc3n2C=C(N=C[NH])CN3)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN1CC2=C(N(C=O)C1=O)N2C(=N)NCCCCN</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)c1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C=C(N=C(C=O)Sc2nc3ccccc3n2Cc2cn(Cc3ccc(CN=[N+]=[N-])cc3)nn2)C1=O</t>
+  </si>
+  <si>
+    <t>COC(=O)C(=CC(=CN(C)CN(C)CCCc1nc2c(c(=O)n(C)c(=O)n2C)n1C)[N+](=O)[O-])SC</t>
+  </si>
+  <si>
+    <t>CCN(CNCCCN=C1NC(=O)CS1)C(C=O)=NC(C=O)=CC=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1=C(NCC(=O)N(C)C=O)C=CC=CCS1</t>
+  </si>
+  <si>
+    <t>CSC1=C2C3N(C)C(=O)N(C)CN1C=C(CN)N23</t>
+  </si>
+  <si>
+    <t>CSC1=C2CC(=O)N(C)C(=O)CN1C=C(N)N2</t>
+  </si>
+  <si>
+    <t>C[SH]=c1n(C)c2c(c(=O)n1C)N=CN(C)C=N2</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C1=CN(C)C1NCCCNCCCCNCCCN=N</t>
+  </si>
+  <si>
+    <t>CN1C(=O)c2nc(NCCC3SC=CC=NCN3C)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>C[SH]=C1CN(C)C(SCC(C)C)=NCN(C)C(=O)N1</t>
+  </si>
+  <si>
+    <t>CCCSN(C)CSc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
+  </si>
+  <si>
+    <t>CN(C(=N)NCCNCCN)c1cn(C)c(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(nc(SC(=O)N3CCCCS3)n2C)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CCNCNC1N(C)CN1C(=O)N(C)C(N)N(C)C=O</t>
+  </si>
+  <si>
+    <t>CCCSC(=NCNC)N(C)CN(C)C</t>
+  </si>
+  <si>
+    <t>CCN1C(=O)N(C)C2=CN=C1C1(SC=CC1=O)N(C)C2</t>
+  </si>
+  <si>
+    <t>CN(C=O)CN(C)C(=O)N=CCC1(N(C)C)N=CC=CS1</t>
+  </si>
+  <si>
+    <t>CN1CN(CC=O)C(=O)NCC1NCC=CCCCN=N</t>
+  </si>
+  <si>
+    <t>CN1CN=CNc2c[nH]cc2CNCN(C=O)CNC1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2nc(NCCN3C=CC(=O)C3)n(C)c2n(C)c1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCNCCN)nc2[nH]c(=O)n(O)c(=O)c21</t>
+  </si>
+  <si>
+    <t>CC1NC(=O)N(C)CN=C(CCNCCNN)CN1C=O</t>
+  </si>
+  <si>
+    <t>CCn1c(=O)c2nc(N(C)C)n(C)c2n(C)c1=O</t>
+  </si>
+  <si>
+    <t>[N-]=[N+]=NCc1ccccc1CN(N)C=CCC1NC=C(Nc2ccccc2N)S1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)N=CCC2(N(C)C)N=CC(=CS2)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1CC2NCC=CC3=NC3(C1=O)N2C</t>
+  </si>
+  <si>
+    <t>CC1N(C)C(=O)N(C=O)CN2CC12NCC=CCCCN=N</t>
+  </si>
+  <si>
+    <t>CN1CN2C=C(C1=O)N(C=O)C(NCCCCNCCCN)=N2</t>
+  </si>
+  <si>
+    <t>CON1c2nc(NCCCNCCCNCCCN)[nH]c2C(=O)N(C)C1C</t>
+  </si>
+  <si>
+    <t>CON1C=C2NC(NCCCNCCCNCCCN)=NC1(C)N(C)C2=O</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E384"/>
+  <dimension ref="A1:E347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9413514728479049</v>
+        <v>1.413759742137105</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>34.21052631578947</v>
+        <v>28.90476190476191</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1574,13 +1463,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.183192721071345</v>
+        <v>1.451016197577579</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>19.83333333333333</v>
+        <v>26.47826086956522</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1591,13 +1480,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.236526156848235</v>
+        <v>1.292281706441624</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>19.83333333333333</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1608,13 +1497,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.241238214925461</v>
+        <v>1.130116216169217</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>22.19512195121951</v>
+        <v>20.97872340425532</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1625,13 +1514,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.14465889691589</v>
+        <v>1.331219641207214</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>17.87234042553191</v>
+        <v>26.6530612244898</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1642,13 +1531,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.081289836696913</v>
+        <v>1.180119221291051</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>18.63414634146341</v>
+        <v>30.11111111111111</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1659,13 +1548,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.255304596919557</v>
+        <v>1.392833188769689</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>19.60869565217391</v>
+        <v>26.43478260869565</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1676,13 +1565,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9977151169254326</v>
+        <v>1.226247027068157</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>17.18367346938776</v>
+        <v>31.18518518518519</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1693,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8970834952960085</v>
+        <v>1.121160902081378</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>22.96774193548387</v>
+        <v>30.2962962962963</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1710,13 +1599,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.124153762132136</v>
+        <v>1.360827430608045</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>19.83333333333333</v>
+        <v>24.58536585365854</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1727,13 +1616,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.071316481432939</v>
+        <v>1.216145169146768</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>29.45454545454545</v>
+        <v>30.43243243243243</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1744,13 +1633,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.006719397426353</v>
+        <v>1.076880964988412</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>22.66666666666667</v>
+        <v>18.36666666666667</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1761,13 +1650,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.375940057915448</v>
+        <v>1.115163887398703</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>19.80487804878049</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1778,13 +1667,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9085298700786946</v>
+        <v>1.200640976336918</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>23.52941176470588</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -1795,13 +1684,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.205907688298149</v>
+        <v>1.109179472328657</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>19.08</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1812,13 +1701,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.158824929782618</v>
+        <v>1.27463342909645</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>20.36842105263158</v>
+        <v>26.2</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -1829,13 +1718,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.383833076980666</v>
+        <v>0.7833007030141652</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>20.85714285714286</v>
+        <v>27.61111111111111</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -1846,13 +1735,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.108919233269667</v>
+        <v>0.8569445900097079</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>23.52941176470588</v>
+        <v>23.14285714285714</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -1863,13 +1752,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.029040734489998</v>
+        <v>0.8924503764983327</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>21.85</v>
+        <v>30.17142857142857</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -1880,13 +1769,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.105425990674447</v>
+        <v>1.376486904388103</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>19.95454545454545</v>
+        <v>20.45454545454545</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -1897,13 +1786,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.385231482016439</v>
+        <v>1.049329351714106</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>20.31111111111111</v>
+        <v>30.17142857142857</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -1914,13 +1803,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.248096840545425</v>
+        <v>0.7027193190743882</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>19.56521739130435</v>
+        <v>31.8125</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -1931,13 +1820,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.148959024320103</v>
+        <v>1.291237140610317</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>21.85</v>
+        <v>30.17142857142857</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -1948,13 +1837,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.225491414159051</v>
+        <v>1.262805768354709</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>25.45</v>
+        <v>23.89189189189189</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -1965,13 +1854,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.068826733396104</v>
+        <v>1.045646256696318</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>24.13333333333333</v>
+        <v>30.17142857142857</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -1982,13 +1871,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.067331213695817</v>
+        <v>0.9962904470824122</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>21.20930232558139</v>
+        <v>25.21951219512195</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -1999,13 +1888,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.194087527879435</v>
+        <v>1.072883433763582</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>28.23333333333333</v>
+        <v>31.93939393939394</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -2016,13 +1905,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.21599193717436</v>
+        <v>0.9578917859525096</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>19.81818181818182</v>
+        <v>31.8125</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
@@ -2033,13 +1922,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.402218345368259</v>
+        <v>0.9512165917902675</v>
       </c>
       <c r="C30">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>24.66666666666667</v>
+        <v>21.10526315789474</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -2050,13 +1939,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.181139668964952</v>
+        <v>1.09097402049959</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>19.72881355932203</v>
+        <v>20.31111111111111</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -2067,13 +1956,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.275650162559153</v>
+        <v>1.385138966852508</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>24.66666666666667</v>
+        <v>22.55</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -2084,13 +1973,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.171767063572261</v>
+        <v>1.021601348996741</v>
       </c>
       <c r="C33">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>25.21428571428572</v>
+        <v>19.95454545454545</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -2101,13 +1990,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.348299217054226</v>
+        <v>1.168999535502165</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>30.21052631578947</v>
+        <v>21.86046511627907</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -2118,13 +2007,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.133820878806896</v>
+        <v>0.9154816051529892</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>23.77272727272727</v>
+        <v>21.85</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
@@ -2135,13 +2024,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.329653212395206</v>
+        <v>1.255527894873209</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>27.82222222222222</v>
+        <v>33.46341463414634</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -2152,13 +2041,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9836417527720079</v>
+        <v>1.07487224043952</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>15.80645161290323</v>
+        <v>20.36842105263158</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
@@ -2169,13 +2058,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.479336371402286</v>
+        <v>1.265524225137679</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>29.86363636363636</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
@@ -2186,13 +2075,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.206478195042402</v>
+        <v>1.22497586948382</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>21.47169811320755</v>
+        <v>26.46153846153846</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -2203,13 +2092,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.305768466036525</v>
+        <v>1.187352977047212</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>27.82222222222222</v>
+        <v>19.31818181818182</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
@@ -2220,13 +2109,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.411922469554862</v>
+        <v>0.7874319538055307</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>21.85</v>
+        <v>28.78947368421053</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -2237,13 +2126,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.203488098802432</v>
+        <v>1.366502127310931</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D42">
-        <v>20.04</v>
+        <v>29.48717948717949</v>
       </c>
       <c r="E42" t="s">
         <v>44</v>
@@ -2254,13 +2143,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.131140125712027</v>
+        <v>1.024704549096233</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D43">
-        <v>22.55</v>
+        <v>29.48717948717949</v>
       </c>
       <c r="E43" t="s">
         <v>45</v>
@@ -2271,13 +2160,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.12619015691923</v>
+        <v>1.479336371402286</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D44">
-        <v>20.83333333333333</v>
+        <v>29.86363636363636</v>
       </c>
       <c r="E44" t="s">
         <v>46</v>
@@ -2288,13 +2177,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.141477022115481</v>
+        <v>1.249449947271083</v>
       </c>
       <c r="C45">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D45">
-        <v>20.83333333333333</v>
+        <v>29.48717948717949</v>
       </c>
       <c r="E45" t="s">
         <v>47</v>
@@ -2305,13 +2194,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9610232952820207</v>
+        <v>1.095645973258142</v>
       </c>
       <c r="C46">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D46">
-        <v>20.16326530612245</v>
+        <v>28.51724137931035</v>
       </c>
       <c r="E46" t="s">
         <v>48</v>
@@ -2322,13 +2211,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.10961493511913</v>
+        <v>1.36482198039915</v>
       </c>
       <c r="C47">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D47">
-        <v>20.83333333333333</v>
+        <v>27.6969696969697</v>
       </c>
       <c r="E47" t="s">
         <v>49</v>
@@ -2339,13 +2228,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9674492075770282</v>
+        <v>1.16452305156325</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D48">
-        <v>32.7</v>
+        <v>21.20930232558139</v>
       </c>
       <c r="E48" t="s">
         <v>50</v>
@@ -2356,13 +2245,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.086030057518086</v>
+        <v>1.27708073821165</v>
       </c>
       <c r="C49">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>28.73170731707317</v>
+        <v>26.21052631578947</v>
       </c>
       <c r="E49" t="s">
         <v>51</v>
@@ -2373,13 +2262,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.05886591499676</v>
+        <v>1.316472426141374</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>20.04</v>
+        <v>25.21951219512195</v>
       </c>
       <c r="E50" t="s">
         <v>52</v>
@@ -2390,13 +2279,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.263800124049115</v>
+        <v>1.539695562634652</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>19.80487804878049</v>
+        <v>23.375</v>
       </c>
       <c r="E51" t="s">
         <v>53</v>
@@ -2407,13 +2296,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.8797136992189277</v>
+        <v>0.8098272829521135</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>37</v>
+        <v>18.63414634146341</v>
       </c>
       <c r="E52" t="s">
         <v>54</v>
@@ -2424,13 +2313,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.296373661432503</v>
+        <v>1.170005048534926</v>
       </c>
       <c r="C53">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>25.70731707317073</v>
+        <v>18.52173913043478</v>
       </c>
       <c r="E53" t="s">
         <v>55</v>
@@ -2441,13 +2330,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9758142331858318</v>
+        <v>1.492171975386627</v>
       </c>
       <c r="C54">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D54">
-        <v>28.76923076923077</v>
+        <v>23.375</v>
       </c>
       <c r="E54" t="s">
         <v>56</v>
@@ -2458,13 +2347,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.261017690318461</v>
+        <v>1.277349420192</v>
       </c>
       <c r="C55">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D55">
-        <v>20.97872340425532</v>
+        <v>21.02439024390244</v>
       </c>
       <c r="E55" t="s">
         <v>57</v>
@@ -2475,13 +2364,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.1413509825999</v>
+        <v>1.013045624279148</v>
       </c>
       <c r="C56">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D56">
-        <v>23.08571428571429</v>
+        <v>30.64705882352941</v>
       </c>
       <c r="E56" t="s">
         <v>58</v>
@@ -2492,13 +2381,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7407300302230857</v>
+        <v>1.222122446354136</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D57">
-        <v>16.94117647058824</v>
+        <v>30.52631578947368</v>
       </c>
       <c r="E57" t="s">
         <v>59</v>
@@ -2509,13 +2398,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.8849028137839369</v>
+        <v>1.154104262636327</v>
       </c>
       <c r="C58">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58">
-        <v>22.25</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="E58" t="s">
         <v>60</v>
@@ -2526,13 +2415,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.8974359809548195</v>
+        <v>1.2242228712853</v>
       </c>
       <c r="C59">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D59">
-        <v>17.96875</v>
+        <v>32.8955223880597</v>
       </c>
       <c r="E59" t="s">
         <v>61</v>
@@ -2543,13 +2432,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.117745475554156</v>
+        <v>0.9453571433269776</v>
       </c>
       <c r="C60">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D60">
-        <v>23.24</v>
+        <v>29.65625</v>
       </c>
       <c r="E60" t="s">
         <v>62</v>
@@ -2560,13 +2449,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.10540554821829</v>
+        <v>1.3645524256053</v>
       </c>
       <c r="C61">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D61">
-        <v>18.80769230769231</v>
+        <v>33.87692307692308</v>
       </c>
       <c r="E61" t="s">
         <v>63</v>
@@ -2577,13 +2466,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.246595544767823</v>
+        <v>1.281697188333365</v>
       </c>
       <c r="C62">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D62">
-        <v>30.95454545454545</v>
+        <v>24.40909090909091</v>
       </c>
       <c r="E62" t="s">
         <v>64</v>
@@ -2594,13 +2483,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.303115155255157</v>
+        <v>1.070679720872523</v>
       </c>
       <c r="C63">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D63">
-        <v>19.18367346938776</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="E63" t="s">
         <v>65</v>
@@ -2611,13 +2500,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.010205284581059</v>
+        <v>0.8581708987250926</v>
       </c>
       <c r="C64">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D64">
-        <v>21.84</v>
+        <v>28.22222222222222</v>
       </c>
       <c r="E64" t="s">
         <v>66</v>
@@ -2628,13 +2517,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.8429892657809945</v>
+        <v>1.016253893567968</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>17.3448275862069</v>
+        <v>33.25</v>
       </c>
       <c r="E65" t="s">
         <v>67</v>
@@ -2645,13 +2534,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.359290047743891</v>
+        <v>1.28331908672234</v>
       </c>
       <c r="C66">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D66">
-        <v>20.97872340425532</v>
+        <v>20.36842105263158</v>
       </c>
       <c r="E66" t="s">
         <v>68</v>
@@ -2662,13 +2551,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.173822974581181</v>
+        <v>1.328494441224347</v>
       </c>
       <c r="C67">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D67">
-        <v>30.95454545454545</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="E67" t="s">
         <v>69</v>
@@ -2679,13 +2568,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.9961107769830381</v>
+        <v>1.414650548957483</v>
       </c>
       <c r="C68">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <v>28.075</v>
+        <v>23.94871794871795</v>
       </c>
       <c r="E68" t="s">
         <v>70</v>
@@ -2696,13 +2585,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.318752236277904</v>
+        <v>0.8358842925668758</v>
       </c>
       <c r="C69">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>21.85</v>
+        <v>30.27272727272727</v>
       </c>
       <c r="E69" t="s">
         <v>71</v>
@@ -2713,13 +2602,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.9253299262644604</v>
+        <v>1.194808256344922</v>
       </c>
       <c r="C70">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D70">
-        <v>17.49019607843137</v>
+        <v>23.47058823529412</v>
       </c>
       <c r="E70" t="s">
         <v>72</v>
@@ -2730,13 +2619,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.251605265029831</v>
+        <v>1.268024728953688</v>
       </c>
       <c r="C71">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D71">
-        <v>25.76744186046512</v>
+        <v>33.46341463414634</v>
       </c>
       <c r="E71" t="s">
         <v>73</v>
@@ -2747,13 +2636,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.268449012565145</v>
+        <v>1.363693549465425</v>
       </c>
       <c r="C72">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D72">
-        <v>36</v>
+        <v>26.75555555555556</v>
       </c>
       <c r="E72" t="s">
         <v>74</v>
@@ -2764,13 +2653,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.113793570001005</v>
+        <v>0.9086526590470488</v>
       </c>
       <c r="C73">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D73">
-        <v>18.71698113207547</v>
+        <v>27.875</v>
       </c>
       <c r="E73" t="s">
         <v>75</v>
@@ -2781,13 +2670,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.264179768465985</v>
+        <v>1.397918991828584</v>
       </c>
       <c r="C74">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D74">
-        <v>21</v>
+        <v>22.73170731707317</v>
       </c>
       <c r="E74" t="s">
         <v>76</v>
@@ -2798,13 +2687,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.367563365546981</v>
+        <v>1.25494285431209</v>
       </c>
       <c r="C75">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D75">
-        <v>22.83333333333333</v>
+        <v>27.69230769230769</v>
       </c>
       <c r="E75" t="s">
         <v>77</v>
@@ -2815,13 +2704,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.130669673348298</v>
+        <v>1.048269146055329</v>
       </c>
       <c r="C76">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D76">
-        <v>20.0377358490566</v>
+        <v>20.04651162790698</v>
       </c>
       <c r="E76" t="s">
         <v>78</v>
@@ -2832,13 +2721,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.315779485009813</v>
+        <v>1.121909424622735</v>
       </c>
       <c r="C77">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D77">
-        <v>21.54545454545455</v>
+        <v>20.93333333333333</v>
       </c>
       <c r="E77" t="s">
         <v>79</v>
@@ -2849,13 +2738,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.371200253011262</v>
+        <v>1.257742083788804</v>
       </c>
       <c r="C78">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D78">
-        <v>21.84</v>
+        <v>30.69565217391304</v>
       </c>
       <c r="E78" t="s">
         <v>80</v>
@@ -2866,13 +2755,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9700485770446839</v>
+        <v>0.9774487034723037</v>
       </c>
       <c r="C79">
         <v>26</v>
       </c>
       <c r="D79">
-        <v>17.31034482758621</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="E79" t="s">
         <v>81</v>
@@ -2883,13 +2772,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.328873985228366</v>
+        <v>1.360261359143407</v>
       </c>
       <c r="C80">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D80">
-        <v>22.53061224489796</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
         <v>82</v>
@@ -2900,13 +2789,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.12292773171108</v>
+        <v>0.9151956150421646</v>
       </c>
       <c r="C81">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D81">
-        <v>20.09302325581395</v>
+        <v>35.10526315789474</v>
       </c>
       <c r="E81" t="s">
         <v>83</v>
@@ -2917,13 +2806,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.092330025324987</v>
+        <v>1.053834914000598</v>
       </c>
       <c r="C82">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D82">
-        <v>20.19607843137255</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="E82" t="s">
         <v>84</v>
@@ -2934,13 +2823,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.6206062294964235</v>
+        <v>0.8797136992189277</v>
       </c>
       <c r="C83">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D83">
-        <v>20.77777777777778</v>
+        <v>37</v>
       </c>
       <c r="E83" t="s">
         <v>85</v>
@@ -2951,13 +2840,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.227963397159084</v>
+        <v>1.022984237758497</v>
       </c>
       <c r="C84">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D84">
-        <v>22.52380952380953</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="E84" t="s">
         <v>86</v>
@@ -2968,13 +2857,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.012992357226191</v>
+        <v>1.253675365363522</v>
       </c>
       <c r="C85">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D85">
-        <v>22.84848484848485</v>
+        <v>21.57446808510638</v>
       </c>
       <c r="E85" t="s">
         <v>87</v>
@@ -2985,13 +2874,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.180859028767188</v>
+        <v>0.9571997821820049</v>
       </c>
       <c r="C86">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D86">
-        <v>19.83333333333333</v>
+        <v>19.81818181818182</v>
       </c>
       <c r="E86" t="s">
         <v>88</v>
@@ -3002,13 +2891,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9697607115833387</v>
+        <v>0.795113163922012</v>
       </c>
       <c r="C87">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D87">
-        <v>24.9375</v>
+        <v>26.61904761904762</v>
       </c>
       <c r="E87" t="s">
         <v>89</v>
@@ -3019,13 +2908,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.8869536179557866</v>
+        <v>1.147205962191215</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D88">
-        <v>29.77777777777778</v>
+        <v>29.95121951219512</v>
       </c>
       <c r="E88" t="s">
         <v>90</v>
@@ -3036,13 +2925,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.255769810214678</v>
+        <v>1.151279990038634</v>
       </c>
       <c r="C89">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D89">
-        <v>25.27272727272727</v>
+        <v>23.19047619047619</v>
       </c>
       <c r="E89" t="s">
         <v>91</v>
@@ -3053,13 +2942,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.286961875065222</v>
+        <v>1.010272602478742</v>
       </c>
       <c r="C90">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D90">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
         <v>92</v>
@@ -3070,13 +2959,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.259612995326058</v>
+        <v>0.9569860384117669</v>
       </c>
       <c r="C91">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D91">
-        <v>25.58823529411765</v>
+        <v>20.04</v>
       </c>
       <c r="E91" t="s">
         <v>93</v>
@@ -3087,13 +2976,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.130410765710706</v>
+        <v>1.060188122481052</v>
       </c>
       <c r="C92">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D92">
-        <v>20.83333333333333</v>
+        <v>27.875</v>
       </c>
       <c r="E92" t="s">
         <v>94</v>
@@ -3104,13 +2993,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.063639341950524</v>
+        <v>1.107205636354171</v>
       </c>
       <c r="C93">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D93">
-        <v>25.29032258064516</v>
+        <v>36.06896551724138</v>
       </c>
       <c r="E93" t="s">
         <v>95</v>
@@ -3121,13 +3010,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.8699582972943009</v>
+        <v>1.096407339190125</v>
       </c>
       <c r="C94">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D94">
-        <v>30.7741935483871</v>
+        <v>38.76923076923077</v>
       </c>
       <c r="E94" t="s">
         <v>96</v>
@@ -3138,13 +3027,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.062731855541514</v>
+        <v>1.182073708341404</v>
       </c>
       <c r="C95">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D95">
-        <v>25.27272727272727</v>
+        <v>33.73333333333333</v>
       </c>
       <c r="E95" t="s">
         <v>97</v>
@@ -3155,13 +3044,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8897454278315999</v>
+        <v>1.112836917552219</v>
       </c>
       <c r="C96">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D96">
-        <v>24.11764705882353</v>
+        <v>22.54054054054054</v>
       </c>
       <c r="E96" t="s">
         <v>98</v>
@@ -3172,13 +3061,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.318880096086807</v>
+        <v>0.8600486786030025</v>
       </c>
       <c r="C97">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D97">
-        <v>21.5</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="E97" t="s">
         <v>99</v>
@@ -3189,13 +3078,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.337985817180893</v>
+        <v>0.8909625187562483</v>
       </c>
       <c r="C98">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D98">
-        <v>17.84615384615385</v>
+        <v>31.29411764705882</v>
       </c>
       <c r="E98" t="s">
         <v>100</v>
@@ -3206,13 +3095,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9537810359803092</v>
+        <v>1.250063324396213</v>
       </c>
       <c r="C99">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D99">
-        <v>20.16666666666667</v>
+        <v>30.05714285714286</v>
       </c>
       <c r="E99" t="s">
         <v>101</v>
@@ -3223,13 +3112,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.249178956649</v>
+        <v>0.9520868503148227</v>
       </c>
       <c r="C100">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D100">
-        <v>18.71698113207547</v>
+        <v>23.77142857142857</v>
       </c>
       <c r="E100" t="s">
         <v>102</v>
@@ -3240,13 +3129,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.307418976189297</v>
+        <v>0.9956214824012664</v>
       </c>
       <c r="C101">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D101">
-        <v>19.41176470588235</v>
+        <v>33.1875</v>
       </c>
       <c r="E101" t="s">
         <v>103</v>
@@ -3257,13 +3146,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.246002141982306</v>
+        <v>1.431671597870994</v>
       </c>
       <c r="C102">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D102">
-        <v>21.20930232558139</v>
+        <v>33.46341463414634</v>
       </c>
       <c r="E102" t="s">
         <v>104</v>
@@ -3274,13 +3163,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.570930759893162</v>
+        <v>1.026237000227924</v>
       </c>
       <c r="C103">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D103">
-        <v>32.32258064516129</v>
+        <v>19.38709677419355</v>
       </c>
       <c r="E103" t="s">
         <v>105</v>
@@ -3291,13 +3180,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.845084451939343</v>
+        <v>1.327702782611831</v>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D104">
-        <v>31.27272727272727</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="E104" t="s">
         <v>106</v>
@@ -3308,13 +3197,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.257619708466486</v>
+        <v>1.240215964932333</v>
       </c>
       <c r="C105">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D105">
-        <v>18.16326530612245</v>
+        <v>26.75</v>
       </c>
       <c r="E105" t="s">
         <v>107</v>
@@ -3325,13 +3214,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.116874472114732</v>
+        <v>1.315179035518284</v>
       </c>
       <c r="C106">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D106">
-        <v>27.44</v>
+        <v>23.77272727272727</v>
       </c>
       <c r="E106" t="s">
         <v>108</v>
@@ -3342,13 +3231,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.092228774451428</v>
+        <v>1.290571730705635</v>
       </c>
       <c r="C107">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D107">
-        <v>18.72727272727273</v>
+        <v>31.12195121951219</v>
       </c>
       <c r="E107" t="s">
         <v>109</v>
@@ -3359,13 +3248,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.02563538002646</v>
+        <v>1.251500049539241</v>
       </c>
       <c r="C108">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D108">
-        <v>20.31111111111111</v>
+        <v>25.59183673469388</v>
       </c>
       <c r="E108" t="s">
         <v>110</v>
@@ -3376,13 +3265,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.323079733108054</v>
+        <v>1.307901989978687</v>
       </c>
       <c r="C109">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D109">
-        <v>19.60869565217391</v>
+        <v>25.375</v>
       </c>
       <c r="E109" t="s">
         <v>111</v>
@@ -3393,13 +3282,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.361797713870114</v>
+        <v>0.956981080854078</v>
       </c>
       <c r="C110">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D110">
-        <v>34.30769230769231</v>
+        <v>29.26086956521739</v>
       </c>
       <c r="E110" t="s">
         <v>112</v>
@@ -3410,13 +3299,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.8667515080650968</v>
+        <v>1.248057220440477</v>
       </c>
       <c r="C111">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D111">
-        <v>18.77777777777778</v>
+        <v>28.21276595744681</v>
       </c>
       <c r="E111" t="s">
         <v>113</v>
@@ -3427,13 +3316,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.098265673112127</v>
+        <v>1.191254885906508</v>
       </c>
       <c r="C112">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D112">
-        <v>22.94736842105263</v>
+        <v>24.4</v>
       </c>
       <c r="E112" t="s">
         <v>114</v>
@@ -3444,13 +3333,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.8024435783308412</v>
+        <v>1.149941099571708</v>
       </c>
       <c r="C113">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D113">
-        <v>18.48484848484848</v>
+        <v>28.36</v>
       </c>
       <c r="E113" t="s">
         <v>115</v>
@@ -3461,13 +3350,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.9396539393535469</v>
+        <v>1.241760384492046</v>
       </c>
       <c r="C114">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D114">
-        <v>17.89189189189189</v>
+        <v>28.35555555555555</v>
       </c>
       <c r="E114" t="s">
         <v>116</v>
@@ -3478,13 +3367,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.019580476488239</v>
+        <v>1.006549678379919</v>
       </c>
       <c r="C115">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D115">
-        <v>21.91666666666667</v>
+        <v>26.56521739130435</v>
       </c>
       <c r="E115" t="s">
         <v>117</v>
@@ -3495,13 +3384,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.8640103225440303</v>
+        <v>1.165651577127377</v>
       </c>
       <c r="C116">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D116">
-        <v>17.48571428571428</v>
+        <v>27.30769230769231</v>
       </c>
       <c r="E116" t="s">
         <v>118</v>
@@ -3512,13 +3401,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.165591599340455</v>
+        <v>1.174429414854751</v>
       </c>
       <c r="C117">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D117">
-        <v>35.04347826086956</v>
+        <v>29.75384615384615</v>
       </c>
       <c r="E117" t="s">
         <v>119</v>
@@ -3529,13 +3418,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.8252619700655786</v>
+        <v>1.065613299289302</v>
       </c>
       <c r="C118">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D118">
-        <v>19.04761904761905</v>
+        <v>28.24615384615385</v>
       </c>
       <c r="E118" t="s">
         <v>120</v>
@@ -3546,13 +3435,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.078631238113927</v>
+        <v>1.309104059428928</v>
       </c>
       <c r="C119">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D119">
-        <v>19.53846153846154</v>
+        <v>25.42465753424657</v>
       </c>
       <c r="E119" t="s">
         <v>121</v>
@@ -3563,13 +3452,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.097891696975079</v>
+        <v>1.184445208299301</v>
       </c>
       <c r="C120">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D120">
-        <v>21.20930232558139</v>
+        <v>24.21052631578947</v>
       </c>
       <c r="E120" t="s">
         <v>122</v>
@@ -3580,13 +3469,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.6058262363453811</v>
+        <v>1.283068707948891</v>
       </c>
       <c r="C121">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D121">
-        <v>23.14285714285714</v>
+        <v>23.14754098360656</v>
       </c>
       <c r="E121" t="s">
         <v>123</v>
@@ -3597,13 +3486,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.165052433669439</v>
+        <v>1.258678816562942</v>
       </c>
       <c r="C122">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D122">
-        <v>32.06896551724138</v>
+        <v>21.7741935483871</v>
       </c>
       <c r="E122" t="s">
         <v>124</v>
@@ -3614,13 +3503,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.291262671740442</v>
+        <v>1.276040558938753</v>
       </c>
       <c r="C123">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D123">
-        <v>28.72727272727273</v>
+        <v>27.48484848484848</v>
       </c>
       <c r="E123" t="s">
         <v>125</v>
@@ -3631,13 +3520,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.194889790561946</v>
+        <v>1.264352121742676</v>
       </c>
       <c r="C124">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D124">
-        <v>22.94736842105263</v>
+        <v>23.6</v>
       </c>
       <c r="E124" t="s">
         <v>126</v>
@@ -3648,13 +3537,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.192471591112858</v>
+        <v>1.303922176433195</v>
       </c>
       <c r="C125">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D125">
-        <v>19.57142857142857</v>
+        <v>26.84057971014493</v>
       </c>
       <c r="E125" t="s">
         <v>127</v>
@@ -3665,13 +3554,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.413935202939733</v>
+        <v>1.400908423644227</v>
       </c>
       <c r="C126">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D126">
-        <v>23.78378378378378</v>
+        <v>23.77272727272727</v>
       </c>
       <c r="E126" t="s">
         <v>128</v>
@@ -3682,13 +3571,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.225197699084115</v>
+        <v>1.366212366594367</v>
       </c>
       <c r="C127">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D127">
-        <v>20.65217391304348</v>
+        <v>26.75</v>
       </c>
       <c r="E127" t="s">
         <v>129</v>
@@ -3699,13 +3588,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.20731010825037</v>
+        <v>1.419804206140791</v>
       </c>
       <c r="C128">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D128">
-        <v>20.65217391304348</v>
+        <v>31.12195121951219</v>
       </c>
       <c r="E128" t="s">
         <v>130</v>
@@ -3716,13 +3605,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.8024628825050785</v>
+        <v>1.178210562387827</v>
       </c>
       <c r="C129">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D129">
-        <v>20.71428571428572</v>
+        <v>21.04545454545455</v>
       </c>
       <c r="E129" t="s">
         <v>131</v>
@@ -3733,13 +3622,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.069065723904838</v>
+        <v>1.019752083646333</v>
       </c>
       <c r="C130">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D130">
-        <v>22.78947368421053</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="E130" t="s">
         <v>132</v>
@@ -3750,13 +3639,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.161624059685952</v>
+        <v>1.193804209941783</v>
       </c>
       <c r="C131">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D131">
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="E131" t="s">
         <v>133</v>
@@ -3767,13 +3656,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.9965686099652455</v>
+        <v>0.9600338492978446</v>
       </c>
       <c r="C132">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D132">
-        <v>20.88888888888889</v>
+        <v>22.36842105263158</v>
       </c>
       <c r="E132" t="s">
         <v>134</v>
@@ -3784,13 +3673,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.8308231106986533</v>
+        <v>1.115867177831186</v>
       </c>
       <c r="C133">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D133">
-        <v>21.68421052631579</v>
+        <v>23.05</v>
       </c>
       <c r="E133" t="s">
         <v>135</v>
@@ -3801,13 +3690,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.084987844621234</v>
+        <v>1.001883789107148</v>
       </c>
       <c r="C134">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D134">
-        <v>23.08571428571429</v>
+        <v>19.4</v>
       </c>
       <c r="E134" t="s">
         <v>136</v>
@@ -3818,13 +3707,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.137154738438744</v>
+        <v>1.469430288754465</v>
       </c>
       <c r="C135">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D135">
-        <v>26</v>
+        <v>24.60606060606061</v>
       </c>
       <c r="E135" t="s">
         <v>137</v>
@@ -3835,13 +3724,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.336216032752259</v>
+        <v>1.205718366355925</v>
       </c>
       <c r="C136">
         <v>31</v>
       </c>
       <c r="D136">
-        <v>21.9</v>
+        <v>20.04651162790698</v>
       </c>
       <c r="E136" t="s">
         <v>138</v>
@@ -3852,13 +3741,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.7025099472351156</v>
+        <v>1.262557977465715</v>
       </c>
       <c r="C137">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D137">
-        <v>18.56</v>
+        <v>25.47619047619047</v>
       </c>
       <c r="E137" t="s">
         <v>139</v>
@@ -3869,13 +3758,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.341922279128162</v>
+        <v>1.000030413168787</v>
       </c>
       <c r="C138">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D138">
-        <v>25.58823529411765</v>
+        <v>21.04545454545455</v>
       </c>
       <c r="E138" t="s">
         <v>140</v>
@@ -3886,13 +3775,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.214455629741927</v>
+        <v>0.9199404246197641</v>
       </c>
       <c r="C139">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D139">
-        <v>22.83333333333333</v>
+        <v>20.65217391304348</v>
       </c>
       <c r="E139" t="s">
         <v>141</v>
@@ -3903,13 +3792,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.982905868607262</v>
+        <v>1.118862589211497</v>
       </c>
       <c r="C140">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D140">
-        <v>21.71428571428572</v>
+        <v>25.375</v>
       </c>
       <c r="E140" t="s">
         <v>142</v>
@@ -3920,13 +3809,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.132511353499555</v>
+        <v>1.046890541311429</v>
       </c>
       <c r="C141">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D141">
-        <v>24.17647058823529</v>
+        <v>24.74509803921569</v>
       </c>
       <c r="E141" t="s">
         <v>143</v>
@@ -3937,13 +3826,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.147750821317906</v>
+        <v>1.205095896833945</v>
       </c>
       <c r="C142">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D142">
-        <v>33</v>
+        <v>32.63157894736842</v>
       </c>
       <c r="E142" t="s">
         <v>144</v>
@@ -3954,13 +3843,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.9286733922037997</v>
+        <v>1.164586749223455</v>
       </c>
       <c r="C143">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D143">
-        <v>29.93548387096774</v>
+        <v>34.34285714285714</v>
       </c>
       <c r="E143" t="s">
         <v>145</v>
@@ -3971,13 +3860,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.311949072815907</v>
+        <v>1.247088741773149</v>
       </c>
       <c r="C144">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D144">
-        <v>25.58823529411765</v>
+        <v>24</v>
       </c>
       <c r="E144" t="s">
         <v>146</v>
@@ -3988,13 +3877,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.113426882010337</v>
+        <v>1.2324745621199</v>
       </c>
       <c r="C145">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D145">
-        <v>21.89189189189189</v>
+        <v>26.43478260869565</v>
       </c>
       <c r="E145" t="s">
         <v>147</v>
@@ -4005,13 +3894,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.153430371535745</v>
+        <v>1.154735538938037</v>
       </c>
       <c r="C146">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D146">
-        <v>21.2</v>
+        <v>25.61702127659574</v>
       </c>
       <c r="E146" t="s">
         <v>148</v>
@@ -4022,13 +3911,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.7665752073585255</v>
+        <v>1.134727327875583</v>
       </c>
       <c r="C147">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D147">
-        <v>27.22727272727273</v>
+        <v>24.84</v>
       </c>
       <c r="E147" t="s">
         <v>149</v>
@@ -4039,13 +3928,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.020393463249262</v>
+        <v>1.240413986689639</v>
       </c>
       <c r="C148">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D148">
-        <v>18.32786885245902</v>
+        <v>27.85714285714286</v>
       </c>
       <c r="E148" t="s">
         <v>150</v>
@@ -4056,13 +3945,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.8553900748225778</v>
+        <v>1.249883189017299</v>
       </c>
       <c r="C149">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D149">
-        <v>25.97872340425532</v>
+        <v>24.62745098039216</v>
       </c>
       <c r="E149" t="s">
         <v>151</v>
@@ -4073,13 +3962,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.235132599705635</v>
+        <v>0.9621044464606908</v>
       </c>
       <c r="C150">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D150">
-        <v>23.75757575757576</v>
+        <v>24.63529411764706</v>
       </c>
       <c r="E150" t="s">
         <v>152</v>
@@ -4090,13 +3979,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.049805356209314</v>
+        <v>0.9359949454453709</v>
       </c>
       <c r="C151">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D151">
-        <v>19</v>
+        <v>24.22727272727273</v>
       </c>
       <c r="E151" t="s">
         <v>153</v>
@@ -4107,13 +3996,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.220328574922244</v>
+        <v>1.015063789353991</v>
       </c>
       <c r="C152">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D152">
-        <v>20.65384615384615</v>
+        <v>24.63529411764706</v>
       </c>
       <c r="E152" t="s">
         <v>154</v>
@@ -4124,13 +4013,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.071274268556266</v>
+        <v>0.9386827509407893</v>
       </c>
       <c r="C153">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D153">
-        <v>22.225</v>
+        <v>32.71428571428572</v>
       </c>
       <c r="E153" t="s">
         <v>155</v>
@@ -4141,13 +4030,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.9423772570456157</v>
+        <v>1.259596872161954</v>
       </c>
       <c r="C154">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D154">
-        <v>21.28205128205128</v>
+        <v>26.21052631578947</v>
       </c>
       <c r="E154" t="s">
         <v>156</v>
@@ -4158,13 +4047,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.463642538424134</v>
+        <v>0.6873307827108941</v>
       </c>
       <c r="C155">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D155">
-        <v>24.86666666666667</v>
+        <v>39.125</v>
       </c>
       <c r="E155" t="s">
         <v>157</v>
@@ -4175,13 +4064,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.9204841066333779</v>
+        <v>1.204981250509559</v>
       </c>
       <c r="C156">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D156">
-        <v>20.29268292682927</v>
+        <v>33.93548387096774</v>
       </c>
       <c r="E156" t="s">
         <v>158</v>
@@ -4192,13 +4081,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.102271991534189</v>
+        <v>1.261869470211726</v>
       </c>
       <c r="C157">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D157">
-        <v>26.8</v>
+        <v>28.13636363636364</v>
       </c>
       <c r="E157" t="s">
         <v>159</v>
@@ -4209,13 +4098,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.9975201874337819</v>
+        <v>1.261881044805246</v>
       </c>
       <c r="C158">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D158">
-        <v>26.47222222222222</v>
+        <v>25.26829268292683</v>
       </c>
       <c r="E158" t="s">
         <v>160</v>
@@ -4226,13 +4115,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.066314055759034</v>
+        <v>1.250335061246732</v>
       </c>
       <c r="C159">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D159">
-        <v>25.40540540540541</v>
+        <v>23.39130434782609</v>
       </c>
       <c r="E159" t="s">
         <v>161</v>
@@ -4243,13 +4132,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.22514732054116</v>
+        <v>0.9816491434326304</v>
       </c>
       <c r="C160">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D160">
-        <v>31.2156862745098</v>
+        <v>20.875</v>
       </c>
       <c r="E160" t="s">
         <v>162</v>
@@ -4260,13 +4149,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.9395924654546438</v>
+        <v>1.178535306854857</v>
       </c>
       <c r="C161">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D161">
-        <v>25.41025641025641</v>
+        <v>20.72727272727273</v>
       </c>
       <c r="E161" t="s">
         <v>163</v>
@@ -4277,13 +4166,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.250449408708873</v>
+        <v>1.286771094342474</v>
       </c>
       <c r="C162">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D162">
-        <v>18.41860465116279</v>
+        <v>25.26829268292683</v>
       </c>
       <c r="E162" t="s">
         <v>164</v>
@@ -4294,13 +4183,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.9644472989197765</v>
+        <v>1.273052751196283</v>
       </c>
       <c r="C163">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D163">
-        <v>21.85</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="E163" t="s">
         <v>165</v>
@@ -4311,13 +4200,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.9892527727902366</v>
+        <v>0.926490732482955</v>
       </c>
       <c r="C164">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D164">
-        <v>20.85714285714286</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="E164" t="s">
         <v>166</v>
@@ -4328,13 +4217,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1.219834439617772</v>
+        <v>1.064212582157823</v>
       </c>
       <c r="C165">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D165">
-        <v>24.68292682926829</v>
+        <v>31.95348837209302</v>
       </c>
       <c r="E165" t="s">
         <v>167</v>
@@ -4345,13 +4234,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.9769901449680589</v>
+        <v>1.396811790894098</v>
       </c>
       <c r="C166">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D166">
-        <v>24.68292682926829</v>
+        <v>23.19047619047619</v>
       </c>
       <c r="E166" t="s">
         <v>168</v>
@@ -4362,13 +4251,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.496053306850822</v>
+        <v>1.09999040755601</v>
       </c>
       <c r="C167">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D167">
-        <v>18.42553191489362</v>
+        <v>24.67924528301887</v>
       </c>
       <c r="E167" t="s">
         <v>169</v>
@@ -4379,13 +4268,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.013124784758039</v>
+        <v>1.299143945334145</v>
       </c>
       <c r="C168">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D168">
-        <v>20.85714285714286</v>
+        <v>23.19047619047619</v>
       </c>
       <c r="E168" t="s">
         <v>170</v>
@@ -4396,13 +4285,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.236862936966229</v>
+        <v>0.8978030644684788</v>
       </c>
       <c r="C169">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D169">
-        <v>24.875</v>
+        <v>22.18181818181818</v>
       </c>
       <c r="E169" t="s">
         <v>171</v>
@@ -4413,13 +4302,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9111165449763696</v>
+        <v>0.9939890347514375</v>
       </c>
       <c r="C170">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D170">
-        <v>19</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="E170" t="s">
         <v>172</v>
@@ -4430,13 +4319,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.263457415088203</v>
+        <v>0.9887614798456709</v>
       </c>
       <c r="C171">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D171">
-        <v>20.65217391304348</v>
+        <v>20.35294117647059</v>
       </c>
       <c r="E171" t="s">
         <v>173</v>
@@ -4447,13 +4336,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.116496636941733</v>
+        <v>1.071772867719222</v>
       </c>
       <c r="C172">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D172">
-        <v>23.375</v>
+        <v>22.59459459459459</v>
       </c>
       <c r="E172" t="s">
         <v>174</v>
@@ -4464,13 +4353,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1.272416798462064</v>
+        <v>1.289876778492225</v>
       </c>
       <c r="C173">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D173">
-        <v>19.34615384615385</v>
+        <v>21.85</v>
       </c>
       <c r="E173" t="s">
         <v>175</v>
@@ -4481,13 +4370,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.375514226675753</v>
+        <v>1.158870637195039</v>
       </c>
       <c r="C174">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D174">
-        <v>23.375</v>
+        <v>19.92592592592593</v>
       </c>
       <c r="E174" t="s">
         <v>176</v>
@@ -4498,13 +4387,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.300900437881375</v>
+        <v>0.9672916746181234</v>
       </c>
       <c r="C175">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D175">
-        <v>32.32258064516129</v>
+        <v>36.07142857142857</v>
       </c>
       <c r="E175" t="s">
         <v>177</v>
@@ -4515,13 +4404,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1.333920899804585</v>
+        <v>1.472871665468798</v>
       </c>
       <c r="C176">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D176">
-        <v>23.375</v>
+        <v>28.96296296296296</v>
       </c>
       <c r="E176" t="s">
         <v>178</v>
@@ -4532,13 +4421,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.603270666182015</v>
+        <v>1.163865583325212</v>
       </c>
       <c r="C177">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D177">
-        <v>34.42857142857143</v>
+        <v>22.89473684210526</v>
       </c>
       <c r="E177" t="s">
         <v>179</v>
@@ -4549,13 +4438,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.426073149423544</v>
+        <v>1.361902851231555</v>
       </c>
       <c r="C178">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D178">
-        <v>22.61538461538462</v>
+        <v>31.2</v>
       </c>
       <c r="E178" t="s">
         <v>180</v>
@@ -4566,13 +4455,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.8906437035972677</v>
+        <v>1.380299462014974</v>
       </c>
       <c r="C179">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D179">
-        <v>24.60606060606061</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="E179" t="s">
         <v>181</v>
@@ -4583,13 +4472,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.9840191781230374</v>
+        <v>1.287493589429296</v>
       </c>
       <c r="C180">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D180">
-        <v>29.17647058823529</v>
+        <v>26.22222222222222</v>
       </c>
       <c r="E180" t="s">
         <v>182</v>
@@ -4600,13 +4489,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.9972153561590964</v>
+        <v>1.090846454302064</v>
       </c>
       <c r="C181">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D181">
-        <v>25.44</v>
+        <v>27.94285714285714</v>
       </c>
       <c r="E181" t="s">
         <v>183</v>
@@ -4617,13 +4506,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.082171886053056</v>
+        <v>1.096557251732066</v>
       </c>
       <c r="C182">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D182">
-        <v>20.48</v>
+        <v>29</v>
       </c>
       <c r="E182" t="s">
         <v>184</v>
@@ -4634,13 +4523,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.189531137767982</v>
+        <v>0.7474291823438177</v>
       </c>
       <c r="C183">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D183">
-        <v>26.83870967741936</v>
+        <v>28</v>
       </c>
       <c r="E183" t="s">
         <v>185</v>
@@ -4651,13 +4540,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.424673523605955</v>
+        <v>1.255714636770908</v>
       </c>
       <c r="C184">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D184">
-        <v>25.87878787878788</v>
+        <v>24.09302325581395</v>
       </c>
       <c r="E184" t="s">
         <v>186</v>
@@ -4668,13 +4557,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.036529695370332</v>
+        <v>1.5473504807952</v>
       </c>
       <c r="C185">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D185">
-        <v>22.5</v>
+        <v>27.70588235294118</v>
       </c>
       <c r="E185" t="s">
         <v>187</v>
@@ -4685,13 +4574,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.278009784267975</v>
+        <v>0.912287933320037</v>
       </c>
       <c r="C186">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D186">
-        <v>20.65217391304348</v>
+        <v>23.47368421052632</v>
       </c>
       <c r="E186" t="s">
         <v>188</v>
@@ -4702,13 +4591,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1.05716252623823</v>
+        <v>1.175352119406295</v>
       </c>
       <c r="C187">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D187">
-        <v>25.85714285714286</v>
+        <v>22.82926829268293</v>
       </c>
       <c r="E187" t="s">
         <v>189</v>
@@ -4719,13 +4608,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.9738348792777647</v>
+        <v>1.111226893122853</v>
       </c>
       <c r="C188">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D188">
-        <v>21.5609756097561</v>
+        <v>27.94285714285714</v>
       </c>
       <c r="E188" t="s">
         <v>190</v>
@@ -4736,13 +4625,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.212875001454027</v>
+        <v>1.042641173895887</v>
       </c>
       <c r="C189">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D189">
-        <v>21.66666666666667</v>
+        <v>19.03703703703704</v>
       </c>
       <c r="E189" t="s">
         <v>191</v>
@@ -4753,13 +4642,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.043835224427299</v>
+        <v>1.065753246261082</v>
       </c>
       <c r="C190">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D190">
-        <v>20.11111111111111</v>
+        <v>20.56603773584906</v>
       </c>
       <c r="E190" t="s">
         <v>192</v>
@@ -4770,13 +4659,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.014033856596944</v>
+        <v>1.532932938497956</v>
       </c>
       <c r="C191">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D191">
-        <v>22.78947368421053</v>
+        <v>24.13953488372093</v>
       </c>
       <c r="E191" t="s">
         <v>193</v>
@@ -4787,13 +4676,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.10299084383312</v>
+        <v>1.375878307734722</v>
       </c>
       <c r="C192">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D192">
-        <v>21.86666666666667</v>
+        <v>24.13953488372093</v>
       </c>
       <c r="E192" t="s">
         <v>194</v>
@@ -4804,13 +4693,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.9863747055841889</v>
+        <v>1.392744732775202</v>
       </c>
       <c r="C193">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D193">
-        <v>21.54545454545455</v>
+        <v>25.26829268292683</v>
       </c>
       <c r="E193" t="s">
         <v>195</v>
@@ -4821,13 +4710,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.109036194593081</v>
+        <v>1.293822355064712</v>
       </c>
       <c r="C194">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D194">
-        <v>18.83333333333333</v>
+        <v>23.65957446808511</v>
       </c>
       <c r="E194" t="s">
         <v>196</v>
@@ -4838,13 +4727,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.053702420450902</v>
+        <v>1.105142049417192</v>
       </c>
       <c r="C195">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D195">
-        <v>22.73170731707317</v>
+        <v>18.53731343283582</v>
       </c>
       <c r="E195" t="s">
         <v>197</v>
@@ -4855,13 +4744,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.383439234509884</v>
+        <v>1.306603057157155</v>
       </c>
       <c r="C196">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D196">
-        <v>25.25714285714286</v>
+        <v>30.69565217391304</v>
       </c>
       <c r="E196" t="s">
         <v>198</v>
@@ -4872,13 +4761,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.316306010967196</v>
+        <v>1.110780760229332</v>
       </c>
       <c r="C197">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D197">
-        <v>24.22222222222222</v>
+        <v>19.07692307692308</v>
       </c>
       <c r="E197" t="s">
         <v>199</v>
@@ -4889,13 +4778,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.308254574054993</v>
+        <v>1.096632328489411</v>
       </c>
       <c r="C198">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D198">
-        <v>23.94594594594595</v>
+        <v>18.09523809523809</v>
       </c>
       <c r="E198" t="s">
         <v>200</v>
@@ -4906,13 +4795,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.7547921366739032</v>
+        <v>1.138009193854691</v>
       </c>
       <c r="C199">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D199">
-        <v>18.18604651162791</v>
+        <v>18.09523809523809</v>
       </c>
       <c r="E199" t="s">
         <v>201</v>
@@ -4923,13 +4812,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.477142992756206</v>
+        <v>1.509503934142198</v>
       </c>
       <c r="C200">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D200">
-        <v>23.94594594594595</v>
+        <v>30.80851063829787</v>
       </c>
       <c r="E200" t="s">
         <v>202</v>
@@ -4940,13 +4829,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.227686341524791</v>
+        <v>1.262369664722021</v>
       </c>
       <c r="C201">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D201">
-        <v>21.4468085106383</v>
+        <v>29.1</v>
       </c>
       <c r="E201" t="s">
         <v>203</v>
@@ -4957,13 +4846,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.23387462929976</v>
+        <v>1.28488487956224</v>
       </c>
       <c r="C202">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D202">
-        <v>26.4375</v>
+        <v>26.61904761904762</v>
       </c>
       <c r="E202" t="s">
         <v>204</v>
@@ -4974,13 +4863,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.017336989814916</v>
+        <v>1.27631136021315</v>
       </c>
       <c r="C203">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D203">
-        <v>19.24324324324324</v>
+        <v>34.32432432432432</v>
       </c>
       <c r="E203" t="s">
         <v>205</v>
@@ -4991,13 +4880,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.423553591453823</v>
+        <v>1.315900131223565</v>
       </c>
       <c r="C204">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D204">
-        <v>22.76923076923077</v>
+        <v>26.54545454545455</v>
       </c>
       <c r="E204" t="s">
         <v>206</v>
@@ -5008,13 +4897,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.9310654248277617</v>
+        <v>1.186995082829325</v>
       </c>
       <c r="C205">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D205">
-        <v>22.24</v>
+        <v>32.61538461538461</v>
       </c>
       <c r="E205" t="s">
         <v>207</v>
@@ -5025,13 +4914,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.9020675929118023</v>
+        <v>1.252924368549152</v>
       </c>
       <c r="C206">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D206">
-        <v>18.6</v>
+        <v>23.05</v>
       </c>
       <c r="E206" t="s">
         <v>208</v>
@@ -5042,13 +4931,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.061328496363414</v>
+        <v>1.170664480873265</v>
       </c>
       <c r="C207">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D207">
-        <v>27.18181818181818</v>
+        <v>22.78260869565218</v>
       </c>
       <c r="E207" t="s">
         <v>209</v>
@@ -5059,13 +4948,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.9627747584132086</v>
+        <v>1.24735155020452</v>
       </c>
       <c r="C208">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D208">
-        <v>21.02439024390244</v>
+        <v>21.04545454545455</v>
       </c>
       <c r="E208" t="s">
         <v>210</v>
@@ -5076,13 +4965,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.076425414970029</v>
+        <v>1.353806945594377</v>
       </c>
       <c r="C209">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D209">
-        <v>38.1025641025641</v>
+        <v>22</v>
       </c>
       <c r="E209" t="s">
         <v>211</v>
@@ -5093,13 +4982,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.8573740077686157</v>
+        <v>1.258958650465071</v>
       </c>
       <c r="C210">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D210">
-        <v>24.11111111111111</v>
+        <v>22</v>
       </c>
       <c r="E210" t="s">
         <v>212</v>
@@ -5110,13 +4999,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.8089839481609924</v>
+        <v>1.292773589718055</v>
       </c>
       <c r="C211">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D211">
-        <v>19.18181818181818</v>
+        <v>27.56521739130435</v>
       </c>
       <c r="E211" t="s">
         <v>213</v>
@@ -5127,13 +5016,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.9881074512360815</v>
+        <v>1.210585941348708</v>
       </c>
       <c r="C212">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D212">
-        <v>24.44444444444444</v>
+        <v>21.6</v>
       </c>
       <c r="E212" t="s">
         <v>214</v>
@@ -5144,13 +5033,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.146658112118053</v>
+        <v>1.454580174417042</v>
       </c>
       <c r="C213">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D213">
-        <v>30.92857142857143</v>
+        <v>32.04545454545455</v>
       </c>
       <c r="E213" t="s">
         <v>215</v>
@@ -5161,13 +5050,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.8423131468953098</v>
+        <v>1.24385295755655</v>
       </c>
       <c r="C214">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D214">
-        <v>16.71428571428572</v>
+        <v>33.46341463414634</v>
       </c>
       <c r="E214" t="s">
         <v>216</v>
@@ -5178,13 +5067,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.7290270661437199</v>
+        <v>1.361587489262769</v>
       </c>
       <c r="C215">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D215">
-        <v>19.24324324324324</v>
+        <v>24.51282051282051</v>
       </c>
       <c r="E215" t="s">
         <v>217</v>
@@ -5195,13 +5084,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.162700457107482</v>
+        <v>1.1634410841584</v>
       </c>
       <c r="C216">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D216">
-        <v>28.41935483870968</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="E216" t="s">
         <v>218</v>
@@ -5212,13 +5101,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.218526129371875</v>
+        <v>1.317128145207481</v>
       </c>
       <c r="C217">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D217">
-        <v>23.96296296296296</v>
+        <v>21.57575757575757</v>
       </c>
       <c r="E217" t="s">
         <v>219</v>
@@ -5229,13 +5118,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.068591163298367</v>
+        <v>1.247569873252887</v>
       </c>
       <c r="C218">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D218">
-        <v>29.22033898305085</v>
+        <v>28.35616438356164</v>
       </c>
       <c r="E218" t="s">
         <v>220</v>
@@ -5246,13 +5135,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.149786287508684</v>
+        <v>1.362594312193029</v>
       </c>
       <c r="C219">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D219">
-        <v>32.70588235294117</v>
+        <v>24.70175438596491</v>
       </c>
       <c r="E219" t="s">
         <v>221</v>
@@ -5263,13 +5152,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.174512947991195</v>
+        <v>1.267144157415079</v>
       </c>
       <c r="C220">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D220">
-        <v>30.8</v>
+        <v>29.02857142857143</v>
       </c>
       <c r="E220" t="s">
         <v>222</v>
@@ -5280,13 +5169,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.011596471607785</v>
+        <v>1.238072485658322</v>
       </c>
       <c r="C221">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D221">
-        <v>41.61904761904762</v>
+        <v>23.20689655172414</v>
       </c>
       <c r="E221" t="s">
         <v>223</v>
@@ -5297,13 +5186,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.122991648556418</v>
+        <v>1.142922953729765</v>
       </c>
       <c r="C222">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D222">
-        <v>23.18918918918919</v>
+        <v>30.21052631578947</v>
       </c>
       <c r="E222" t="s">
         <v>224</v>
@@ -5314,13 +5203,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1.362557258052316</v>
+        <v>1.276721265279416</v>
       </c>
       <c r="C223">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D223">
-        <v>37</v>
+        <v>27.97142857142857</v>
       </c>
       <c r="E223" t="s">
         <v>225</v>
@@ -5331,13 +5220,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1.009916234823678</v>
+        <v>0.940704188333669</v>
       </c>
       <c r="C224">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D224">
-        <v>28.23333333333333</v>
+        <v>27.06666666666667</v>
       </c>
       <c r="E224" t="s">
         <v>226</v>
@@ -5348,13 +5237,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1.184795716540812</v>
+        <v>1.33840003763851</v>
       </c>
       <c r="C225">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D225">
-        <v>29.05263157894737</v>
+        <v>28.41935483870968</v>
       </c>
       <c r="E225" t="s">
         <v>227</v>
@@ -5365,13 +5254,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1.130850246176438</v>
+        <v>1.251605265029831</v>
       </c>
       <c r="C226">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D226">
-        <v>25.49295774647887</v>
+        <v>25.76744186046512</v>
       </c>
       <c r="E226" t="s">
         <v>228</v>
@@ -5382,13 +5271,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1.022196542985</v>
+        <v>1.069531109642659</v>
       </c>
       <c r="C227">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D227">
-        <v>24.50847457627119</v>
+        <v>32.74285714285714</v>
       </c>
       <c r="E227" t="s">
         <v>229</v>
@@ -5399,13 +5288,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.034146012991804</v>
+        <v>1.124237111800809</v>
       </c>
       <c r="C228">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D228">
-        <v>18.8125</v>
+        <v>24.65116279069768</v>
       </c>
       <c r="E228" t="s">
         <v>230</v>
@@ -5433,13 +5322,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.247346774730257</v>
+        <v>1.236715970894299</v>
       </c>
       <c r="C230">
         <v>38</v>
       </c>
       <c r="D230">
-        <v>36.92307692307692</v>
+        <v>30.85</v>
       </c>
       <c r="E230" t="s">
         <v>232</v>
@@ -5450,13 +5339,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.219387227127628</v>
+        <v>0.9435627790421536</v>
       </c>
       <c r="C231">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D231">
-        <v>18.58064516129032</v>
+        <v>18.38461538461538</v>
       </c>
       <c r="E231" t="s">
         <v>233</v>
@@ -5467,13 +5356,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.260713402108866</v>
+        <v>1.075768055843461</v>
       </c>
       <c r="C232">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D232">
-        <v>19.72881355932203</v>
+        <v>19.08</v>
       </c>
       <c r="E232" t="s">
         <v>234</v>
@@ -5484,13 +5373,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.36836821471112</v>
+        <v>1.163599819945583</v>
       </c>
       <c r="C233">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D233">
-        <v>22.875</v>
+        <v>20.31111111111111</v>
       </c>
       <c r="E233" t="s">
         <v>235</v>
@@ -5501,13 +5390,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1.112732046421813</v>
+        <v>1.175971731543343</v>
       </c>
       <c r="C234">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D234">
-        <v>22.88888888888889</v>
+        <v>32</v>
       </c>
       <c r="E234" t="s">
         <v>236</v>
@@ -5518,13 +5407,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.135712862565308</v>
+        <v>1.292197739792122</v>
       </c>
       <c r="C235">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D235">
-        <v>21.73684210526316</v>
+        <v>31.19047619047619</v>
       </c>
       <c r="E235" t="s">
         <v>237</v>
@@ -5535,13 +5424,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.9871430755859472</v>
+        <v>1.343356069421377</v>
       </c>
       <c r="C236">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D236">
-        <v>20.13333333333333</v>
+        <v>22.59459459459459</v>
       </c>
       <c r="E236" t="s">
         <v>238</v>
@@ -5552,13 +5441,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.169026876028822</v>
+        <v>1.498109413084053</v>
       </c>
       <c r="C237">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D237">
-        <v>19.60869565217391</v>
+        <v>31.09090909090909</v>
       </c>
       <c r="E237" t="s">
         <v>239</v>
@@ -5569,13 +5458,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.9445822644817435</v>
+        <v>1.126700567734324</v>
       </c>
       <c r="C238">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D238">
-        <v>21.65217391304348</v>
+        <v>20.31111111111111</v>
       </c>
       <c r="E238" t="s">
         <v>240</v>
@@ -5586,13 +5475,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>1.341739933396597</v>
+        <v>1.219619391767377</v>
       </c>
       <c r="C239">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D239">
-        <v>24.22222222222222</v>
+        <v>22</v>
       </c>
       <c r="E239" t="s">
         <v>241</v>
@@ -5603,13 +5492,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>1.127629006449937</v>
+        <v>1.273207750724849</v>
       </c>
       <c r="C240">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D240">
-        <v>23.81818181818182</v>
+        <v>22.63829787234043</v>
       </c>
       <c r="E240" t="s">
         <v>242</v>
@@ -5620,13 +5509,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>1.494045129906495</v>
+        <v>1.378131275016574</v>
       </c>
       <c r="C241">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D241">
-        <v>23.94594594594595</v>
+        <v>26.78947368421053</v>
       </c>
       <c r="E241" t="s">
         <v>243</v>
@@ -5637,13 +5526,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.8438490891384667</v>
+        <v>1.235401669133697</v>
       </c>
       <c r="C242">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D242">
-        <v>19.2</v>
+        <v>28.90476190476191</v>
       </c>
       <c r="E242" t="s">
         <v>244</v>
@@ -5654,13 +5543,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.803627534174141</v>
+        <v>1.061515190455977</v>
       </c>
       <c r="C243">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D243">
-        <v>19.20833333333333</v>
+        <v>26.54054054054054</v>
       </c>
       <c r="E243" t="s">
         <v>245</v>
@@ -5671,13 +5560,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>1.016198415317578</v>
+        <v>0.9898137970167166</v>
       </c>
       <c r="C244">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D244">
-        <v>20.51063829787234</v>
+        <v>22.04761904761905</v>
       </c>
       <c r="E244" t="s">
         <v>246</v>
@@ -5688,13 +5577,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1.208959040060674</v>
+        <v>1.294819757102595</v>
       </c>
       <c r="C245">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D245">
-        <v>18.43137254901961</v>
+        <v>32.04545454545455</v>
       </c>
       <c r="E245" t="s">
         <v>247</v>
@@ -5705,13 +5594,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1.223259989873899</v>
+        <v>1.156602679392245</v>
       </c>
       <c r="C246">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D246">
-        <v>20.85714285714286</v>
+        <v>19.07692307692308</v>
       </c>
       <c r="E246" t="s">
         <v>248</v>
@@ -5722,13 +5611,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1.230409289751971</v>
+        <v>1.382556479308298</v>
       </c>
       <c r="C247">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D247">
-        <v>18.43137254901961</v>
+        <v>21.68421052631579</v>
       </c>
       <c r="E247" t="s">
         <v>249</v>
@@ -5739,13 +5628,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1.302492445506555</v>
+        <v>1.17434388915669</v>
       </c>
       <c r="C248">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D248">
-        <v>20.51063829787234</v>
+        <v>20.65217391304348</v>
       </c>
       <c r="E248" t="s">
         <v>250</v>
@@ -5756,13 +5645,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.9184703207533356</v>
+        <v>1.34005055384141</v>
       </c>
       <c r="C249">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D249">
-        <v>22.5531914893617</v>
+        <v>21.20930232558139</v>
       </c>
       <c r="E249" t="s">
         <v>251</v>
@@ -5773,13 +5662,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.9669741460620187</v>
+        <v>1.234967968261185</v>
       </c>
       <c r="C250">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D250">
-        <v>20.31111111111111</v>
+        <v>20.65</v>
       </c>
       <c r="E250" t="s">
         <v>252</v>
@@ -5790,13 +5679,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.989726268412503</v>
+        <v>1.411922469554862</v>
       </c>
       <c r="C251">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D251">
-        <v>19.83333333333333</v>
+        <v>21.85</v>
       </c>
       <c r="E251" t="s">
         <v>253</v>
@@ -5807,13 +5696,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>1.004839700929749</v>
+        <v>1.252700856283283</v>
       </c>
       <c r="C252">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D252">
-        <v>20.82051282051282</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="E252" t="s">
         <v>254</v>
@@ -5824,13 +5713,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1.148060300271238</v>
+        <v>1.019162421413592</v>
       </c>
       <c r="C253">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D253">
-        <v>21.5</v>
+        <v>23.26666666666667</v>
       </c>
       <c r="E253" t="s">
         <v>255</v>
@@ -5841,13 +5730,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.8310109681202943</v>
+        <v>1.453481573756173</v>
       </c>
       <c r="C254">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D254">
-        <v>16.44444444444444</v>
+        <v>21.20930232558139</v>
       </c>
       <c r="E254" t="s">
         <v>256</v>
@@ -5858,13 +5747,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>1.083502222361375</v>
+        <v>1.153729174757857</v>
       </c>
       <c r="C255">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D255">
-        <v>23.23076923076923</v>
+        <v>21.08571428571429</v>
       </c>
       <c r="E255" t="s">
         <v>257</v>
@@ -5875,13 +5764,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.8255793475633397</v>
+        <v>1.132186559759519</v>
       </c>
       <c r="C256">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D256">
-        <v>17.20833333333333</v>
+        <v>29.63636363636364</v>
       </c>
       <c r="E256" t="s">
         <v>258</v>
@@ -5892,13 +5781,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.8759707312135659</v>
+        <v>0.9605037674099917</v>
       </c>
       <c r="C257">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D257">
-        <v>18.85106382978723</v>
+        <v>28.22222222222222</v>
       </c>
       <c r="E257" t="s">
         <v>259</v>
@@ -5909,13 +5798,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1.286555886844114</v>
+        <v>0.9575396174004356</v>
       </c>
       <c r="C258">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D258">
-        <v>21.20930232558139</v>
+        <v>19.53846153846154</v>
       </c>
       <c r="E258" t="s">
         <v>260</v>
@@ -5926,13 +5815,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>1.299925330258767</v>
+        <v>0.8509339198576601</v>
       </c>
       <c r="C259">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D259">
-        <v>19.04761904761905</v>
+        <v>32.69565217391305</v>
       </c>
       <c r="E259" t="s">
         <v>261</v>
@@ -5943,13 +5832,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.8350737180619779</v>
+        <v>1.229578561285662</v>
       </c>
       <c r="C260">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D260">
-        <v>24.46153846153846</v>
+        <v>26.83333333333333</v>
       </c>
       <c r="E260" t="s">
         <v>262</v>
@@ -5960,13 +5849,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.8809001381208915</v>
+        <v>1.254322909342662</v>
       </c>
       <c r="C261">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D261">
-        <v>18.76595744680851</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="E261" t="s">
         <v>263</v>
@@ -5977,13 +5866,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.8202054503784068</v>
+        <v>1.419200432694777</v>
       </c>
       <c r="C262">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D262">
-        <v>23.61904761904762</v>
+        <v>26.61904761904762</v>
       </c>
       <c r="E262" t="s">
         <v>264</v>
@@ -5994,13 +5883,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1.218090187096066</v>
+        <v>1.130177964790652</v>
       </c>
       <c r="C263">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D263">
-        <v>23.36585365853659</v>
+        <v>26.91304347826087</v>
       </c>
       <c r="E263" t="s">
         <v>265</v>
@@ -6011,13 +5900,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1.135521316723138</v>
+        <v>1.218052694119465</v>
       </c>
       <c r="C264">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D264">
-        <v>17.89285714285714</v>
+        <v>24.95</v>
       </c>
       <c r="E264" t="s">
         <v>266</v>
@@ -6028,13 +5917,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>1.009111533421213</v>
+        <v>0.9513235342640161</v>
       </c>
       <c r="C265">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D265">
-        <v>18.71698113207547</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="E265" t="s">
         <v>267</v>
@@ -6045,13 +5934,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>1.245945142065258</v>
+        <v>1.137493209002924</v>
       </c>
       <c r="C266">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D266">
-        <v>16</v>
+        <v>15.62068965517241</v>
       </c>
       <c r="E266" t="s">
         <v>268</v>
@@ -6062,13 +5951,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>1.074745279873504</v>
+        <v>1.241733711120679</v>
       </c>
       <c r="C267">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D267">
-        <v>18.71698113207547</v>
+        <v>20</v>
       </c>
       <c r="E267" t="s">
         <v>269</v>
@@ -6079,13 +5968,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>1.203167950840863</v>
+        <v>1.413559227422766</v>
       </c>
       <c r="C268">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D268">
-        <v>16.76666666666667</v>
+        <v>20.81481481481481</v>
       </c>
       <c r="E268" t="s">
         <v>270</v>
@@ -6096,13 +5985,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>1.136212453951228</v>
+        <v>1.13751292494759</v>
       </c>
       <c r="C269">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D269">
-        <v>16.98245614035088</v>
+        <v>18.63414634146341</v>
       </c>
       <c r="E269" t="s">
         <v>271</v>
@@ -6113,13 +6002,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>1.049025713233552</v>
+        <v>1.231723634963634</v>
       </c>
       <c r="C270">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D270">
-        <v>26.46153846153846</v>
+        <v>25.5</v>
       </c>
       <c r="E270" t="s">
         <v>272</v>
@@ -6130,13 +6019,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>1.071297327997125</v>
+        <v>1.242163605813603</v>
       </c>
       <c r="C271">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D271">
-        <v>20.85714285714286</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="E271" t="s">
         <v>273</v>
@@ -6147,13 +6036,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>1.088270301262916</v>
+        <v>1.119821378065848</v>
       </c>
       <c r="C272">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D272">
-        <v>17.31034482758621</v>
+        <v>28.55813953488372</v>
       </c>
       <c r="E272" t="s">
         <v>274</v>
@@ -6164,13 +6053,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>1.221890204615124</v>
+        <v>1.410341583427434</v>
       </c>
       <c r="C273">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D273">
-        <v>27.83783783783784</v>
+        <v>25.375</v>
       </c>
       <c r="E273" t="s">
         <v>275</v>
@@ -6181,13 +6070,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>1.126766167585898</v>
+        <v>1.136580419274336</v>
       </c>
       <c r="C274">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D274">
-        <v>21.85</v>
+        <v>27.52173913043478</v>
       </c>
       <c r="E274" t="s">
         <v>276</v>
@@ -6198,13 +6087,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>1.462147883722576</v>
+        <v>1.006498166976636</v>
       </c>
       <c r="C275">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D275">
-        <v>23.78378378378378</v>
+        <v>29.40740740740741</v>
       </c>
       <c r="E275" t="s">
         <v>277</v>
@@ -6215,13 +6104,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>1.185251494563565</v>
+        <v>1.168785907224782</v>
       </c>
       <c r="C276">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D276">
-        <v>21.52631578947368</v>
+        <v>31.18518518518519</v>
       </c>
       <c r="E276" t="s">
         <v>278</v>
@@ -6232,13 +6121,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>1.306481759026365</v>
+        <v>1.235972370941559</v>
       </c>
       <c r="C277">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D277">
-        <v>25.08108108108108</v>
+        <v>25.375</v>
       </c>
       <c r="E277" t="s">
         <v>279</v>
@@ -6249,13 +6138,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>1.243326377920324</v>
+        <v>1.277388263975272</v>
       </c>
       <c r="C278">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D278">
-        <v>19.70731707317073</v>
+        <v>28.29508196721311</v>
       </c>
       <c r="E278" t="s">
         <v>280</v>
@@ -6266,13 +6155,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.6686037789999483</v>
+        <v>0.9003042433629891</v>
       </c>
       <c r="C279">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D279">
-        <v>25</v>
+        <v>29.83050847457627</v>
       </c>
       <c r="E279" t="s">
         <v>281</v>
@@ -6283,13 +6172,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>1.337748733493607</v>
+        <v>1.160536120840529</v>
       </c>
       <c r="C280">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D280">
-        <v>24.76470588235294</v>
+        <v>28.86567164179105</v>
       </c>
       <c r="E280" t="s">
         <v>282</v>
@@ -6300,13 +6189,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>1.096474120159485</v>
+        <v>1.065582004650146</v>
       </c>
       <c r="C281">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D281">
-        <v>24.85714285714286</v>
+        <v>28.24615384615385</v>
       </c>
       <c r="E281" t="s">
         <v>283</v>
@@ -6317,13 +6206,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>1.465183732006706</v>
+        <v>1.254183221003796</v>
       </c>
       <c r="C282">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D282">
-        <v>22.96969696969697</v>
+        <v>38.76923076923077</v>
       </c>
       <c r="E282" t="s">
         <v>284</v>
@@ -6334,13 +6223,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>1.054204284066598</v>
+        <v>1.395516918173914</v>
       </c>
       <c r="C283">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D283">
-        <v>20.53658536585366</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="E283" t="s">
         <v>285</v>
@@ -6351,13 +6240,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>1.009045787273468</v>
+        <v>1.181593654416155</v>
       </c>
       <c r="C284">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D284">
-        <v>29.77777777777778</v>
+        <v>29.21428571428572</v>
       </c>
       <c r="E284" t="s">
         <v>286</v>
@@ -6368,13 +6257,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>1.281697188333365</v>
+        <v>1.344304642832357</v>
       </c>
       <c r="C285">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D285">
-        <v>24.40909090909091</v>
+        <v>30.10714285714286</v>
       </c>
       <c r="E285" t="s">
         <v>287</v>
@@ -6385,13 +6274,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>1.0665525946952</v>
+        <v>0.9999373118526483</v>
       </c>
       <c r="C286">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D286">
-        <v>25.06976744186046</v>
+        <v>19.91176470588235</v>
       </c>
       <c r="E286" t="s">
         <v>288</v>
@@ -6402,13 +6291,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>1.057514657914955</v>
+        <v>1.324832650021273</v>
       </c>
       <c r="C287">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D287">
-        <v>24.06896551724138</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="E287" t="s">
         <v>289</v>
@@ -6419,13 +6308,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>1.06406300253158</v>
+        <v>1.315676890285091</v>
       </c>
       <c r="C288">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D288">
-        <v>28.17142857142857</v>
+        <v>20.16326530612245</v>
       </c>
       <c r="E288" t="s">
         <v>290</v>
@@ -6436,13 +6325,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.9838740519786416</v>
+        <v>1.281272731172808</v>
       </c>
       <c r="C289">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D289">
-        <v>23.68888888888889</v>
+        <v>20.65217391304348</v>
       </c>
       <c r="E289" t="s">
         <v>291</v>
@@ -6453,7 +6342,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>1.262731484608417</v>
+        <v>1.4340622602357</v>
       </c>
       <c r="C290">
         <v>36</v>
@@ -6470,13 +6359,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>1.227612708278329</v>
+        <v>1.051283522125784</v>
       </c>
       <c r="C291">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D291">
-        <v>21.20930232558139</v>
+        <v>18.38461538461538</v>
       </c>
       <c r="E291" t="s">
         <v>293</v>
@@ -6487,13 +6376,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>1.222280627853007</v>
+        <v>1.023677554409661</v>
       </c>
       <c r="C292">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D292">
-        <v>22.96969696969697</v>
+        <v>17.74074074074074</v>
       </c>
       <c r="E292" t="s">
         <v>294</v>
@@ -6504,13 +6393,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.8751013335125383</v>
+        <v>1.022089892350882</v>
       </c>
       <c r="C293">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D293">
-        <v>23.07142857142857</v>
+        <v>22.94736842105263</v>
       </c>
       <c r="E293" t="s">
         <v>295</v>
@@ -6521,13 +6410,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.9362389739086959</v>
+        <v>1.257189734127323</v>
       </c>
       <c r="C294">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D294">
-        <v>20.59459459459459</v>
+        <v>22</v>
       </c>
       <c r="E294" t="s">
         <v>296</v>
@@ -6538,13 +6427,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>1.278722964756469</v>
+        <v>1.212151115823269</v>
       </c>
       <c r="C295">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D295">
-        <v>25.74358974358974</v>
+        <v>22.93333333333333</v>
       </c>
       <c r="E295" t="s">
         <v>297</v>
@@ -6555,13 +6444,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>1.067823699971737</v>
+        <v>1.410785821295401</v>
       </c>
       <c r="C296">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D296">
-        <v>18.12</v>
+        <v>20.65217391304348</v>
       </c>
       <c r="E296" t="s">
         <v>298</v>
@@ -6572,13 +6461,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>1.573265355076259</v>
+        <v>1.148208586572218</v>
       </c>
       <c r="C297">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D297">
-        <v>25.24137931034483</v>
+        <v>19.96078431372549</v>
       </c>
       <c r="E297" t="s">
         <v>299</v>
@@ -6589,13 +6478,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>1.146796588090806</v>
+        <v>1.049450053763086</v>
       </c>
       <c r="C298">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D298">
-        <v>19.09523809523809</v>
+        <v>27.03125</v>
       </c>
       <c r="E298" t="s">
         <v>300</v>
@@ -6606,13 +6495,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1.147092836877177</v>
+        <v>1.131614185123533</v>
       </c>
       <c r="C299">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D299">
-        <v>28.6551724137931</v>
+        <v>30.17241379310345</v>
       </c>
       <c r="E299" t="s">
         <v>301</v>
@@ -6623,13 +6512,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>1.248766077190139</v>
+        <v>0.9274733931910567</v>
       </c>
       <c r="C300">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D300">
-        <v>27.5625</v>
+        <v>30.34615384615385</v>
       </c>
       <c r="E300" t="s">
         <v>302</v>
@@ -6640,13 +6529,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>1.066676645142503</v>
+        <v>1.214725986620476</v>
       </c>
       <c r="C301">
         <v>35</v>
       </c>
       <c r="D301">
-        <v>29.25423728813559</v>
+        <v>24.94444444444444</v>
       </c>
       <c r="E301" t="s">
         <v>303</v>
@@ -6657,13 +6546,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>1.313761180888755</v>
+        <v>1.256064937249776</v>
       </c>
       <c r="C302">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D302">
-        <v>29.9016393442623</v>
+        <v>27.5609756097561</v>
       </c>
       <c r="E302" t="s">
         <v>304</v>
@@ -6674,13 +6563,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>1.164645460755346</v>
+        <v>1.064689563279028</v>
       </c>
       <c r="C303">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D303">
-        <v>29.9016393442623</v>
+        <v>20.31111111111111</v>
       </c>
       <c r="E303" t="s">
         <v>305</v>
@@ -6691,13 +6580,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>1.247950665016112</v>
+        <v>1.006041865283453</v>
       </c>
       <c r="C304">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D304">
-        <v>28.98412698412698</v>
+        <v>21.875</v>
       </c>
       <c r="E304" t="s">
         <v>306</v>
@@ -6708,13 +6597,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>1.098386936735235</v>
+        <v>0.9376054121992624</v>
       </c>
       <c r="C305">
         <v>29</v>
       </c>
       <c r="D305">
-        <v>24.09302325581395</v>
+        <v>25.47619047619047</v>
       </c>
       <c r="E305" t="s">
         <v>307</v>
@@ -6725,13 +6614,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>1.23885837300025</v>
+        <v>1.218530089077329</v>
       </c>
       <c r="C306">
         <v>31</v>
       </c>
       <c r="D306">
-        <v>21.20930232558139</v>
+        <v>18.16326530612245</v>
       </c>
       <c r="E306" t="s">
         <v>308</v>
@@ -6742,13 +6631,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>1.100064935016299</v>
+        <v>1.091882196359146</v>
       </c>
       <c r="C307">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D307">
-        <v>21.20930232558139</v>
+        <v>29.37142857142857</v>
       </c>
       <c r="E307" t="s">
         <v>309</v>
@@ -6759,13 +6648,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>1.104589173803708</v>
+        <v>1.011947441030252</v>
       </c>
       <c r="C308">
         <v>33</v>
       </c>
       <c r="D308">
-        <v>21.48717948717949</v>
+        <v>26.55</v>
       </c>
       <c r="E308" t="s">
         <v>310</v>
@@ -6776,13 +6665,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>1.10078327645712</v>
+        <v>1.057071864734821</v>
       </c>
       <c r="C309">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D309">
-        <v>21.20930232558139</v>
+        <v>20.85714285714286</v>
       </c>
       <c r="E309" t="s">
         <v>311</v>
@@ -6793,13 +6682,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.8994087420992117</v>
+        <v>0.770665106670993</v>
       </c>
       <c r="C310">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D310">
-        <v>20.31111111111111</v>
+        <v>25.58333333333333</v>
       </c>
       <c r="E310" t="s">
         <v>312</v>
@@ -6810,13 +6699,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.8380345904726435</v>
+        <v>0.9007467191557166</v>
       </c>
       <c r="C311">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D311">
-        <v>19.80487804878049</v>
+        <v>24.49350649350649</v>
       </c>
       <c r="E311" t="s">
         <v>313</v>
@@ -6827,13 +6716,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.8796071892358849</v>
+        <v>1.108174299616254</v>
       </c>
       <c r="C312">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D312">
-        <v>35.66666666666666</v>
+        <v>29.67741935483871</v>
       </c>
       <c r="E312" t="s">
         <v>314</v>
@@ -6844,13 +6733,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>1.065593926818128</v>
+        <v>1.133759396654996</v>
       </c>
       <c r="C313">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D313">
-        <v>25.70731707317073</v>
+        <v>26.21052631578947</v>
       </c>
       <c r="E313" t="s">
         <v>315</v>
@@ -6861,13 +6750,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>1.188277608604333</v>
+        <v>1.446936665437883</v>
       </c>
       <c r="C314">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D314">
-        <v>29.22033898305085</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="E314" t="s">
         <v>316</v>
@@ -6878,13 +6767,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>1.142577745112851</v>
+        <v>1.196452453859801</v>
       </c>
       <c r="C315">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D315">
-        <v>19.04761904761905</v>
+        <v>27.46875</v>
       </c>
       <c r="E315" t="s">
         <v>317</v>
@@ -6895,13 +6784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>1.229225078543752</v>
+        <v>1.275533067138617</v>
       </c>
       <c r="C316">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D316">
-        <v>32.2</v>
+        <v>22.59459459459459</v>
       </c>
       <c r="E316" t="s">
         <v>318</v>
@@ -6912,10 +6801,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>1.00258361446615</v>
+        <v>1.327912918861687</v>
       </c>
       <c r="C317">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D317">
         <v>21.20930232558139</v>
@@ -6929,13 +6818,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>1.008954672695794</v>
+        <v>1.016062563491655</v>
       </c>
       <c r="C318">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D318">
-        <v>31.5</v>
+        <v>31.49152542372881</v>
       </c>
       <c r="E318" t="s">
         <v>320</v>
@@ -6946,13 +6835,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.9095044039916037</v>
+        <v>1.061522242000532</v>
       </c>
       <c r="C319">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D319">
-        <v>20.65</v>
+        <v>26.81818181818182</v>
       </c>
       <c r="E319" t="s">
         <v>321</v>
@@ -6963,13 +6852,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>1.647294233668463</v>
+        <v>1.096239698502199</v>
       </c>
       <c r="C320">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D320">
-        <v>28.94444444444444</v>
+        <v>28.65217391304348</v>
       </c>
       <c r="E320" t="s">
         <v>322</v>
@@ -6980,13 +6869,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>1.05489948160258</v>
+        <v>0.7712219234083736</v>
       </c>
       <c r="C321">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D321">
-        <v>18.39285714285714</v>
+        <v>26.78947368421053</v>
       </c>
       <c r="E321" t="s">
         <v>323</v>
@@ -6997,13 +6886,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.8718463858151568</v>
+        <v>1.271585693615503</v>
       </c>
       <c r="C322">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D322">
-        <v>27.08333333333333</v>
+        <v>27.94285714285714</v>
       </c>
       <c r="E322" t="s">
         <v>324</v>
@@ -7014,13 +6903,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>1.162169503408931</v>
+        <v>1.178362982861776</v>
       </c>
       <c r="C323">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D323">
-        <v>18.22727272727273</v>
+        <v>30.7741935483871</v>
       </c>
       <c r="E323" t="s">
         <v>325</v>
@@ -7031,13 +6920,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>1.348711591893593</v>
+        <v>1.323340041572493</v>
       </c>
       <c r="C324">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D324">
-        <v>20.45454545454545</v>
+        <v>29.375</v>
       </c>
       <c r="E324" t="s">
         <v>326</v>
@@ -7048,13 +6937,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>1.13729079515168</v>
+        <v>0.9484580099436704</v>
       </c>
       <c r="C325">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D325">
-        <v>17.87234042553191</v>
+        <v>17.80645161290322</v>
       </c>
       <c r="E325" t="s">
         <v>327</v>
@@ -7065,13 +6954,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>1.11267317201281</v>
+        <v>1.14765470292303</v>
       </c>
       <c r="C326">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D326">
-        <v>20.42105263157895</v>
+        <v>28.13636363636364</v>
       </c>
       <c r="E326" t="s">
         <v>328</v>
@@ -7082,13 +6971,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>1.106119799023845</v>
+        <v>1.313619420380765</v>
       </c>
       <c r="C327">
         <v>28</v>
       </c>
       <c r="D327">
-        <v>19.04761904761905</v>
+        <v>28.55813953488372</v>
       </c>
       <c r="E327" t="s">
         <v>329</v>
@@ -7099,13 +6988,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>1.090827129214318</v>
+        <v>1.371600659551786</v>
       </c>
       <c r="C328">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D328">
-        <v>20.97872340425532</v>
+        <v>31.95348837209302</v>
       </c>
       <c r="E328" t="s">
         <v>330</v>
@@ -7116,13 +7005,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.7606417200360894</v>
+        <v>1.127621157964821</v>
       </c>
       <c r="C329">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D329">
-        <v>19.07407407407407</v>
+        <v>21.04545454545455</v>
       </c>
       <c r="E329" t="s">
         <v>331</v>
@@ -7133,13 +7022,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>1.039385853976323</v>
+        <v>1.218718977586226</v>
       </c>
       <c r="C330">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D330">
-        <v>24</v>
+        <v>33.46341463414634</v>
       </c>
       <c r="E330" t="s">
         <v>332</v>
@@ -7150,13 +7039,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>1.010546960764155</v>
+        <v>1.538157824851037</v>
       </c>
       <c r="C331">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D331">
-        <v>23.29166666666667</v>
+        <v>19.82222222222222</v>
       </c>
       <c r="E331" t="s">
         <v>333</v>
@@ -7167,13 +7056,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>1.088865718004637</v>
+        <v>1.000059602127729</v>
       </c>
       <c r="C332">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D332">
-        <v>30.13636363636364</v>
+        <v>21.43589743589743</v>
       </c>
       <c r="E332" t="s">
         <v>334</v>
@@ -7184,13 +7073,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.9381266951921027</v>
+        <v>1.256150913904453</v>
       </c>
       <c r="C333">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D333">
-        <v>33.12</v>
+        <v>29.55555555555556</v>
       </c>
       <c r="E333" t="s">
         <v>335</v>
@@ -7201,13 +7090,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>1.035917064094931</v>
+        <v>1.177281820091088</v>
       </c>
       <c r="C334">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D334">
-        <v>24.51428571428572</v>
+        <v>26.61904761904762</v>
       </c>
       <c r="E334" t="s">
         <v>336</v>
@@ -7218,13 +7107,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.9302811869146834</v>
+        <v>1.033172916816628</v>
       </c>
       <c r="C335">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D335">
-        <v>21.42222222222222</v>
+        <v>20.31111111111111</v>
       </c>
       <c r="E335" t="s">
         <v>337</v>
@@ -7235,13 +7124,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.985095660809833</v>
+        <v>1.074083829502784</v>
       </c>
       <c r="C336">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D336">
-        <v>23.1</v>
+        <v>23.05</v>
       </c>
       <c r="E336" t="s">
         <v>338</v>
@@ -7252,13 +7141,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.9269258878782868</v>
+        <v>1.282028985046283</v>
       </c>
       <c r="C337">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D337">
-        <v>24.43243243243243</v>
+        <v>24.58536585365854</v>
       </c>
       <c r="E337" t="s">
         <v>339</v>
@@ -7269,13 +7158,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.8982525363128532</v>
+        <v>0.9281267594236248</v>
       </c>
       <c r="C338">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D338">
-        <v>19.82352941176471</v>
+        <v>24.64864864864865</v>
       </c>
       <c r="E338" t="s">
         <v>340</v>
@@ -7286,13 +7175,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.9006968429337294</v>
+        <v>1.216640727902209</v>
       </c>
       <c r="C339">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D339">
-        <v>16.93333333333333</v>
+        <v>20.17391304347826</v>
       </c>
       <c r="E339" t="s">
         <v>341</v>
@@ -7303,13 +7192,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.9307362079057546</v>
+        <v>1.528104844358396</v>
       </c>
       <c r="C340">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D340">
-        <v>22.51851851851852</v>
+        <v>22.45714285714286</v>
       </c>
       <c r="E340" t="s">
         <v>342</v>
@@ -7320,13 +7209,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>1.193484065732286</v>
+        <v>0.8303985027693656</v>
       </c>
       <c r="C341">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D341">
-        <v>22.35555555555555</v>
+        <v>26.26415094339623</v>
       </c>
       <c r="E341" t="s">
         <v>343</v>
@@ -7337,13 +7226,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>1.309098241887356</v>
+        <v>1.454336256976521</v>
       </c>
       <c r="C342">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D342">
-        <v>25.25714285714286</v>
+        <v>29.13513513513514</v>
       </c>
       <c r="E342" t="s">
         <v>344</v>
@@ -7354,13 +7243,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>1.194453655786915</v>
+        <v>0.9976883346682381</v>
       </c>
       <c r="C343">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D343">
-        <v>20.34146341463414</v>
+        <v>21.86206896551724</v>
       </c>
       <c r="E343" t="s">
         <v>345</v>
@@ -7371,13 +7260,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.7972689089867326</v>
+        <v>1.240352719803638</v>
       </c>
       <c r="C344">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D344">
-        <v>20.42105263157895</v>
+        <v>20.65217391304348</v>
       </c>
       <c r="E344" t="s">
         <v>346</v>
@@ -7388,13 +7277,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>1.000599076133235</v>
+        <v>0.9070353080195542</v>
       </c>
       <c r="C345">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D345">
-        <v>20.82051282051282</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="E345" t="s">
         <v>347</v>
@@ -7405,13 +7294,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>1.095525395329397</v>
+        <v>1.181575930946333</v>
       </c>
       <c r="C346">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D346">
-        <v>22.15384615384615</v>
+        <v>19.11475409836066</v>
       </c>
       <c r="E346" t="s">
         <v>348</v>
@@ -7422,645 +7311,16 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>1.086423916133545</v>
+        <v>1.303168456952366</v>
       </c>
       <c r="C347">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D347">
-        <v>27.1875</v>
+        <v>19.11475409836066</v>
       </c>
       <c r="E347" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="A348" s="1">
-        <v>346</v>
-      </c>
-      <c r="B348">
-        <v>0.9510123205026279</v>
-      </c>
-      <c r="C348">
-        <v>25</v>
-      </c>
-      <c r="D348">
-        <v>17.02564102564103</v>
-      </c>
-      <c r="E348" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="1">
-        <v>347</v>
-      </c>
-      <c r="B349">
-        <v>1.136454475074697</v>
-      </c>
-      <c r="C349">
-        <v>33</v>
-      </c>
-      <c r="D349">
-        <v>21.85</v>
-      </c>
-      <c r="E349" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="1">
-        <v>348</v>
-      </c>
-      <c r="B350">
-        <v>1.097854515633201</v>
-      </c>
-      <c r="C350">
-        <v>25</v>
-      </c>
-      <c r="D350">
-        <v>23.58139534883721</v>
-      </c>
-      <c r="E350" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="1">
-        <v>349</v>
-      </c>
-      <c r="B351">
-        <v>1.165903871068535</v>
-      </c>
-      <c r="C351">
-        <v>25</v>
-      </c>
-      <c r="D351">
-        <v>23.58139534883721</v>
-      </c>
-      <c r="E351" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="A352" s="1">
-        <v>350</v>
-      </c>
-      <c r="B352">
-        <v>1.312445586606201</v>
-      </c>
-      <c r="C352">
-        <v>25</v>
-      </c>
-      <c r="D352">
-        <v>18.41860465116279</v>
-      </c>
-      <c r="E352" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="A353" s="1">
-        <v>351</v>
-      </c>
-      <c r="B353">
-        <v>1.329287532169617</v>
-      </c>
-      <c r="C353">
-        <v>28</v>
-      </c>
-      <c r="D353">
-        <v>27.24324324324324</v>
-      </c>
-      <c r="E353" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="A354" s="1">
-        <v>352</v>
-      </c>
-      <c r="B354">
-        <v>1.152172435234339</v>
-      </c>
-      <c r="C354">
-        <v>20</v>
-      </c>
-      <c r="D354">
-        <v>19.87096774193548</v>
-      </c>
-      <c r="E354" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="B355">
-        <v>1.066621414538398</v>
-      </c>
-      <c r="C355">
-        <v>30</v>
-      </c>
-      <c r="D355">
-        <v>19.56521739130435</v>
-      </c>
-      <c r="E355" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356">
-        <v>1.090080003308232</v>
-      </c>
-      <c r="C356">
-        <v>33</v>
-      </c>
-      <c r="D356">
-        <v>19.14285714285714</v>
-      </c>
-      <c r="E356" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="A357" s="1">
-        <v>355</v>
-      </c>
-      <c r="B357">
-        <v>1.261508369071125</v>
-      </c>
-      <c r="C357">
-        <v>35</v>
-      </c>
-      <c r="D357">
-        <v>23.22727272727273</v>
-      </c>
-      <c r="E357" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="A358" s="1">
-        <v>356</v>
-      </c>
-      <c r="B358">
-        <v>1.266111974693879</v>
-      </c>
-      <c r="C358">
-        <v>36</v>
-      </c>
-      <c r="D358">
-        <v>26.15</v>
-      </c>
-      <c r="E358" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="A359" s="1">
-        <v>357</v>
-      </c>
-      <c r="B359">
-        <v>1.247392075751232</v>
-      </c>
-      <c r="C359">
-        <v>42</v>
-      </c>
-      <c r="D359">
-        <v>25.45</v>
-      </c>
-      <c r="E359" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="A360" s="1">
-        <v>358</v>
-      </c>
-      <c r="B360">
-        <v>0.9303360574807222</v>
-      </c>
-      <c r="C360">
-        <v>33</v>
-      </c>
-      <c r="D360">
-        <v>20.04</v>
-      </c>
-      <c r="E360" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="A361" s="1">
-        <v>359</v>
-      </c>
-      <c r="B361">
-        <v>0.9021944218698783</v>
-      </c>
-      <c r="C361">
-        <v>32</v>
-      </c>
-      <c r="D361">
-        <v>22.43243243243243</v>
-      </c>
-      <c r="E361" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="A362" s="1">
-        <v>360</v>
-      </c>
-      <c r="B362">
-        <v>1.36170853199779</v>
-      </c>
-      <c r="C362">
-        <v>30</v>
-      </c>
-      <c r="D362">
-        <v>23.61111111111111</v>
-      </c>
-      <c r="E362" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="A363" s="1">
-        <v>361</v>
-      </c>
-      <c r="B363">
-        <v>1.121743045737592</v>
-      </c>
-      <c r="C363">
-        <v>42</v>
-      </c>
-      <c r="D363">
-        <v>26.40909090909091</v>
-      </c>
-      <c r="E363" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="A364" s="1">
-        <v>362</v>
-      </c>
-      <c r="B364">
-        <v>1.263277905054546</v>
-      </c>
-      <c r="C364">
-        <v>46</v>
-      </c>
-      <c r="D364">
-        <v>21.16666666666667</v>
-      </c>
-      <c r="E364" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="A365" s="1">
-        <v>363</v>
-      </c>
-      <c r="B365">
-        <v>1.067918520934254</v>
-      </c>
-      <c r="C365">
-        <v>43</v>
-      </c>
-      <c r="D365">
-        <v>20.54054054054054</v>
-      </c>
-      <c r="E365" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
-      <c r="A366" s="1">
-        <v>364</v>
-      </c>
-      <c r="B366">
-        <v>1.139141761068099</v>
-      </c>
-      <c r="C366">
-        <v>42</v>
-      </c>
-      <c r="D366">
-        <v>20.0377358490566</v>
-      </c>
-      <c r="E366" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="A367" s="1">
-        <v>365</v>
-      </c>
-      <c r="B367">
-        <v>1.138481836884246</v>
-      </c>
-      <c r="C367">
-        <v>37</v>
-      </c>
-      <c r="D367">
-        <v>27.66666666666667</v>
-      </c>
-      <c r="E367" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
-      <c r="A368" s="1">
-        <v>366</v>
-      </c>
-      <c r="B368">
-        <v>1.278281043686384</v>
-      </c>
-      <c r="C368">
-        <v>35</v>
-      </c>
-      <c r="D368">
-        <v>25.24324324324324</v>
-      </c>
-      <c r="E368" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
-      <c r="A369" s="1">
-        <v>367</v>
-      </c>
-      <c r="B369">
-        <v>1.268373517377595</v>
-      </c>
-      <c r="C369">
-        <v>41</v>
-      </c>
-      <c r="D369">
-        <v>19</v>
-      </c>
-      <c r="E369" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
-      <c r="A370" s="1">
-        <v>368</v>
-      </c>
-      <c r="B370">
-        <v>1.084576317276735</v>
-      </c>
-      <c r="C370">
-        <v>44</v>
-      </c>
-      <c r="D370">
-        <v>20.48</v>
-      </c>
-      <c r="E370" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="A371" s="1">
-        <v>369</v>
-      </c>
-      <c r="B371">
-        <v>1.133599727300828</v>
-      </c>
-      <c r="C371">
-        <v>53</v>
-      </c>
-      <c r="D371">
-        <v>28.76923076923077</v>
-      </c>
-      <c r="E371" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="A372" s="1">
-        <v>370</v>
-      </c>
-      <c r="B372">
-        <v>1.366318845149897</v>
-      </c>
-      <c r="C372">
-        <v>29</v>
-      </c>
-      <c r="D372">
-        <v>22.83333333333333</v>
-      </c>
-      <c r="E372" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="A373" s="1">
-        <v>371</v>
-      </c>
-      <c r="B373">
-        <v>0.8048573044288253</v>
-      </c>
-      <c r="C373">
-        <v>21</v>
-      </c>
-      <c r="D373">
-        <v>22.45714285714286</v>
-      </c>
-      <c r="E373" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="1">
-        <v>372</v>
-      </c>
-      <c r="B374">
-        <v>1.179487764474398</v>
-      </c>
-      <c r="C374">
-        <v>33</v>
-      </c>
-      <c r="D374">
-        <v>20.65</v>
-      </c>
-      <c r="E374" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="A375" s="1">
-        <v>373</v>
-      </c>
-      <c r="B375">
-        <v>1.12755252689078</v>
-      </c>
-      <c r="C375">
-        <v>33</v>
-      </c>
-      <c r="D375">
-        <v>19.71428571428572</v>
-      </c>
-      <c r="E375" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="1">
-        <v>374</v>
-      </c>
-      <c r="B376">
-        <v>1.014276868038229</v>
-      </c>
-      <c r="C376">
-        <v>26</v>
-      </c>
-      <c r="D376">
-        <v>17.85964912280702</v>
-      </c>
-      <c r="E376" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="A377" s="1">
-        <v>375</v>
-      </c>
-      <c r="B377">
-        <v>1.095709640157323</v>
-      </c>
-      <c r="C377">
-        <v>31</v>
-      </c>
-      <c r="D377">
-        <v>17.56363636363636</v>
-      </c>
-      <c r="E377" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="A378" s="1">
-        <v>376</v>
-      </c>
-      <c r="B378">
-        <v>1.243644460016735</v>
-      </c>
-      <c r="C378">
-        <v>31</v>
-      </c>
-      <c r="D378">
-        <v>22.11111111111111</v>
-      </c>
-      <c r="E378" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
-      <c r="A379" s="1">
-        <v>377</v>
-      </c>
-      <c r="B379">
-        <v>1.165169249536682</v>
-      </c>
-      <c r="C379">
-        <v>27</v>
-      </c>
-      <c r="D379">
-        <v>22.5625</v>
-      </c>
-      <c r="E379" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
-      <c r="A380" s="1">
-        <v>378</v>
-      </c>
-      <c r="B380">
-        <v>1.44968148542833</v>
-      </c>
-      <c r="C380">
-        <v>24</v>
-      </c>
-      <c r="D380">
-        <v>23.81818181818182</v>
-      </c>
-      <c r="E380" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="1">
-        <v>379</v>
-      </c>
-      <c r="B381">
-        <v>0.8842134700231933</v>
-      </c>
-      <c r="C381">
-        <v>33</v>
-      </c>
-      <c r="D381">
-        <v>23.88571428571429</v>
-      </c>
-      <c r="E381" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="1">
-        <v>380</v>
-      </c>
-      <c r="B382">
-        <v>1.121912484858459</v>
-      </c>
-      <c r="C382">
-        <v>26</v>
-      </c>
-      <c r="D382">
-        <v>22.88888888888889</v>
-      </c>
-      <c r="E382" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
-      <c r="A383" s="1">
-        <v>381</v>
-      </c>
-      <c r="B383">
-        <v>1.205078573575498</v>
-      </c>
-      <c r="C383">
-        <v>23</v>
-      </c>
-      <c r="D383">
-        <v>24.9375</v>
-      </c>
-      <c r="E383" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="A384" s="1">
-        <v>382</v>
-      </c>
-      <c r="B384">
-        <v>1.126114422737802</v>
-      </c>
-      <c r="C384">
-        <v>25</v>
-      </c>
-      <c r="D384">
-        <v>18.25</v>
-      </c>
-      <c r="E384" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>
